--- a/ToM/compVsMimic_Etude/EtudeFinale/Resultats/ComportementPow.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Resultats/ComportementPow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Resultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A29BE7E7-178F-408A-9293-572654AE06A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D37B1EB5-2C14-40B5-9C53-7C465771FF20}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6072" tabRatio="991" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6072" tabRatio="991" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowBob" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{3F0080CE-FAD1-481C-BF14-99E5D06D2BE6}" name="powValues" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="powValues" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Data\powValues.csv" decimal="," thousands=" " tab="0" semicolon="1">
       <textFields count="4">
         <textField/>
@@ -396,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -407,29 +407,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,23 +438,30 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4190,7 +4192,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="powValues" connectionId="1" xr16:uid="{006B4A11-F938-4257-B491-75CB1724FA18}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="powValues" connectionId="1" xr16:uid="{00000000-0016-0000-0300-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5369,22 +5371,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
@@ -11801,22 +11803,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
@@ -15006,8 +15008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC823D7-300F-4EE7-A4A0-74F1D74EE094}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:M13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15151,18 +15153,18 @@
       <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24" t="s">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24" t="s">
+      <c r="K10" s="12"/>
+      <c r="L10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="24"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
@@ -15180,18 +15182,18 @@
       <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20" t="s">
+      <c r="K11" s="13"/>
+      <c r="L11" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="M11" s="20"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
@@ -15209,18 +15211,18 @@
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M12" s="22"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
@@ -15238,18 +15240,18 @@
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22" t="s">
+      <c r="I13" s="10"/>
+      <c r="J13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22" t="s">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M13" s="22"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
@@ -15278,13 +15280,13 @@
       <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="27" t="s">
         <v>59</v>
       </c>
     </row>
@@ -15301,16 +15303,16 @@
       <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="28" t="s">
         <v>71</v>
       </c>
     </row>
@@ -15327,16 +15329,16 @@
       <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="28" t="s">
         <v>70</v>
       </c>
     </row>
@@ -16075,10 +16077,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:C62"/>
+    <sheetView topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50:L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16091,292 +16093,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="13">
         <v>704</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13">
         <v>3231</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13">
         <v>631.5</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13">
         <v>2704</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="23"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="13">
         <v>-4.6113759999999999</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13">
         <v>-5.2967690000000003</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13">
         <v>-6.278918</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13">
         <v>-0.43531130000000001</v>
       </c>
-      <c r="J3" s="20"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="23"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="10">
         <v>2.8789999999999999E-6</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11">
         <v>7.3070000000000005E-8</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11">
         <v>1.419E-10</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="20">
+      <c r="H4" s="11"/>
+      <c r="I4" s="13">
         <v>0.6583</v>
       </c>
-      <c r="J4" s="20"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="23"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="10">
         <v>-0.29521310000000001</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11">
         <v>-0.33909089999999997</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11">
         <v>-0.40196660000000001</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20">
+      <c r="H5" s="11"/>
+      <c r="I5" s="13">
         <v>-2.7867949999999999E-2</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>1258.5</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16">
         <v>1983.5</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16">
         <v>1609</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16">
         <v>3140</v>
       </c>
-      <c r="J6" s="17"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>-1.5711930000000001</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16">
         <v>-2.2064729999999999</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16">
         <v>-1.4521390000000001</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17">
+      <c r="H7" s="16"/>
+      <c r="I7" s="16">
         <v>-1.3295509999999999</v>
       </c>
-      <c r="J7" s="17"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>0.1105</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19">
+      <c r="D8" s="17"/>
+      <c r="E8" s="18">
         <v>2.461E-2</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
         <v>0.13980000000000001</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="11">
+      <c r="H8" s="18"/>
+      <c r="I8" s="19">
         <v>0.17580000000000001</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>-0.1005853</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19">
+      <c r="D9" s="17"/>
+      <c r="E9" s="18">
         <v>-0.14125499999999999</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18">
         <v>-9.2963649999999995E-2</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="11">
+      <c r="H9" s="18"/>
+      <c r="I9" s="19">
         <v>-8.5115780000000002E-2</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="21">
         <v>424.5</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21">
         <v>2875</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="9">
+      <c r="F10" s="21"/>
+      <c r="G10" s="22">
         <v>415.5</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9">
+      <c r="H10" s="22"/>
+      <c r="I10" s="22">
         <v>2255</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="12"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="21">
         <v>-6.2264720000000002</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21">
         <v>-5.7182069999999996</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="9">
+      <c r="F11" s="21"/>
+      <c r="G11" s="22">
         <v>-7.0561369999999997</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9">
+      <c r="H11" s="22"/>
+      <c r="I11" s="22">
         <v>-0.76786379999999999</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="12"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="23">
         <v>2.523E-10</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13">
+      <c r="D12" s="23"/>
+      <c r="E12" s="21">
         <v>6.8489999999999998E-9</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13">
+      <c r="F12" s="21"/>
+      <c r="G12" s="21">
         <v>8.1889999999999997E-13</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="15">
+      <c r="H12" s="21"/>
+      <c r="I12" s="24">
         <v>0.43509999999999999</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="12"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="21">
         <v>-0.39860899999999999</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21">
         <v>-0.36607070000000003</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="9">
+      <c r="F13" s="21"/>
+      <c r="G13" s="22">
         <v>-0.45172289999999998</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9">
+      <c r="H13" s="22"/>
+      <c r="I13" s="22">
         <v>-4.9157439999999997E-2</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
@@ -16394,12 +16396,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
@@ -16535,7 +16537,7 @@
         <v>1.1717439999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
@@ -16546,7 +16548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
@@ -16560,7 +16562,7 @@
         <v>0.71389999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -16574,7 +16576,7 @@
         <v>0.27910000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="5" t="s">
         <v>22</v>
       </c>
@@ -16588,7 +16590,7 @@
         <v>0.71389999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5" t="s">
         <v>23</v>
       </c>
@@ -16602,22 +16604,22 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6"/>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10" t="s">
+      <c r="C41" s="25"/>
+      <c r="D41" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10" t="s">
+      <c r="E41" s="25"/>
+      <c r="F41" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G41" s="25"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="5" t="s">
         <v>35</v>
       </c>
@@ -16640,7 +16642,7 @@
         <v>0.94033489999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="5" t="s">
         <v>31</v>
       </c>
@@ -16663,7 +16665,7 @@
         <v>1.0831820000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="5" t="s">
         <v>36</v>
       </c>
@@ -16685,8 +16687,12 @@
       <c r="G44" s="5">
         <v>0.93889299999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="5" t="s">
         <v>32</v>
       </c>
@@ -16708,8 +16714,12 @@
       <c r="G45" s="5">
         <v>1.117686</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="5" t="s">
         <v>37</v>
       </c>
@@ -16731,8 +16741,20 @@
       <c r="G46" s="5">
         <v>1.0062800000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I46" s="26">
+        <v>1.991803</v>
+      </c>
+      <c r="J46" s="26">
+        <v>3.8114750000000002</v>
+      </c>
+      <c r="K46" s="26">
+        <v>2.278689</v>
+      </c>
+      <c r="L46" s="26">
+        <v>3.0245899999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
@@ -16754,8 +16776,20 @@
       <c r="G47" s="5">
         <v>1.0095400000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I47" s="26">
+        <v>0.94033489999999997</v>
+      </c>
+      <c r="J47" s="26">
+        <v>0.93889299999999998</v>
+      </c>
+      <c r="K47" s="26">
+        <v>1.0062800000000001</v>
+      </c>
+      <c r="L47" s="26">
+        <v>1.124212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="5" t="s">
         <v>38</v>
       </c>
@@ -16777,8 +16811,12 @@
       <c r="G48" s="5">
         <v>1.124212</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="5" t="s">
         <v>34</v>
       </c>
@@ -16801,7 +16839,35 @@
         <v>1.103658</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="I50" s="26">
+        <v>2.9836070000000001</v>
+      </c>
+      <c r="J50" s="26">
+        <v>2.877049</v>
+      </c>
+      <c r="K50" s="26">
+        <v>3.5983610000000001</v>
+      </c>
+      <c r="L50" s="26">
+        <v>3.1721309999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="I51" s="26">
+        <v>1.0831820000000001</v>
+      </c>
+      <c r="J51" s="26">
+        <v>1.117686</v>
+      </c>
+      <c r="K51" s="26">
+        <v>1.0095400000000001</v>
+      </c>
+      <c r="L51" s="26">
+        <v>1.103658</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -16812,7 +16878,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B53">
         <v>1.75</v>
       </c>
@@ -16821,16 +16887,16 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B54">
         <v>1.75</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:C56" si="0">4+0.8</f>
+        <f t="shared" ref="C54:C55" si="0">4+0.8</f>
         <v>4.8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B55">
         <v>2.2000000000000002</v>
       </c>
@@ -16839,7 +16905,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B56">
         <v>2.2000000000000002</v>
       </c>
@@ -16848,7 +16914,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -16859,7 +16925,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B59">
         <v>0.75</v>
       </c>
@@ -16868,16 +16934,16 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B60">
         <v>0.75</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:C62" si="1">4+0.8</f>
+        <f t="shared" ref="C60:C61" si="1">4+0.8</f>
         <v>4.8</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B61">
         <v>1.2</v>
       </c>
@@ -16886,7 +16952,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B62">
         <v>1.2</v>
       </c>
@@ -16895,7 +16961,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -16982,6 +17048,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -16998,49 +17107,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -17055,7 +17121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>

--- a/ToM/compVsMimic_Etude/EtudeFinale/Resultats/ComportementPow.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Resultats/ComportementPow.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Resultats\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D37B1EB5-2C14-40B5-9C53-7C465771FF20}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6072" tabRatio="991" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6075" tabRatio="991" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PowBob" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
   <definedNames>
     <definedName name="powValues" localSheetId="3">powNegotiation!$A$1:$D$68</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -33,8 +27,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="powValues" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="powValues" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Data\powValues.csv" decimal="," thousands=" " tab="0" semicolon="1">
       <textFields count="4">
         <textField/>
@@ -48,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="84">
   <si>
     <t>H1</t>
   </si>
@@ -292,11 +286,20 @@
   <si>
     <t>0.6559</t>
   </si>
+  <si>
+    <t>somilaire</t>
+  </si>
+  <si>
+    <t>neutre</t>
+  </si>
+  <si>
+    <t>comp.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,6 +411,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,8 +431,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,31 +464,8 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -551,7 +554,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -690,7 +693,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-42DC-44FD-AF77-E2FCFA18FED9}"/>
             </c:ext>
@@ -778,7 +781,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-42DC-44FD-AF77-E2FCFA18FED9}"/>
             </c:ext>
@@ -793,8 +796,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564765184"/>
-        <c:axId val="572826176"/>
+        <c:axId val="535783936"/>
+        <c:axId val="535564800"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -858,7 +861,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-42DC-44FD-AF77-E2FCFA18FED9}"/>
             </c:ext>
@@ -923,7 +926,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-42DC-44FD-AF77-E2FCFA18FED9}"/>
             </c:ext>
@@ -988,7 +991,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-42DC-44FD-AF77-E2FCFA18FED9}"/>
             </c:ext>
@@ -1053,7 +1056,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-42DC-44FD-AF77-E2FCFA18FED9}"/>
             </c:ext>
@@ -1067,11 +1070,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="564765184"/>
-        <c:axId val="572826176"/>
+        <c:axId val="535783936"/>
+        <c:axId val="535564800"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="564765184"/>
+        <c:axId val="535783936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1094,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572826176"/>
+        <c:crossAx val="535564800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1099,7 +1102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="572826176"/>
+        <c:axId val="535564800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1139,7 +1142,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564765184"/>
+        <c:crossAx val="535783936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1189,7 +1192,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1328,7 +1331,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C041-4752-B6A0-B1DA9F4EB0CF}"/>
             </c:ext>
@@ -1375,7 +1378,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C041-4752-B6A0-B1DA9F4EB0CF}"/>
             </c:ext>
@@ -1390,8 +1393,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89699328"/>
-        <c:axId val="572827328"/>
+        <c:axId val="537911808"/>
+        <c:axId val="535567104"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1455,7 +1458,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C041-4752-B6A0-B1DA9F4EB0CF}"/>
             </c:ext>
@@ -1520,7 +1523,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C041-4752-B6A0-B1DA9F4EB0CF}"/>
             </c:ext>
@@ -1585,7 +1588,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C041-4752-B6A0-B1DA9F4EB0CF}"/>
             </c:ext>
@@ -1650,7 +1653,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C041-4752-B6A0-B1DA9F4EB0CF}"/>
             </c:ext>
@@ -1664,11 +1667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89699328"/>
-        <c:axId val="572827328"/>
+        <c:axId val="537911808"/>
+        <c:axId val="535567104"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="89699328"/>
+        <c:axId val="537911808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +1691,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572827328"/>
+        <c:crossAx val="535567104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1696,7 +1699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="572827328"/>
+        <c:axId val="535567104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1736,7 +1739,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89699328"/>
+        <c:crossAx val="537911808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1786,7 +1789,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1935,7 +1938,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A1F2-40B4-BF22-27F4C4F36424}"/>
             </c:ext>
@@ -2023,7 +2026,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A1F2-40B4-BF22-27F4C4F36424}"/>
             </c:ext>
@@ -2038,8 +2041,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="565019648"/>
-        <c:axId val="572830208"/>
+        <c:axId val="559790592"/>
+        <c:axId val="537822336"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2103,7 +2106,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A1F2-40B4-BF22-27F4C4F36424}"/>
             </c:ext>
@@ -2168,7 +2171,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A1F2-40B4-BF22-27F4C4F36424}"/>
             </c:ext>
@@ -2233,7 +2236,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A1F2-40B4-BF22-27F4C4F36424}"/>
             </c:ext>
@@ -2298,7 +2301,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A1F2-40B4-BF22-27F4C4F36424}"/>
             </c:ext>
@@ -2312,11 +2315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="565019648"/>
-        <c:axId val="572830208"/>
+        <c:axId val="559790592"/>
+        <c:axId val="537822336"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="565019648"/>
+        <c:axId val="559790592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2336,7 +2339,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572830208"/>
+        <c:crossAx val="537822336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2344,7 +2347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="572830208"/>
+        <c:axId val="537822336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2384,7 +2387,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565019648"/>
+        <c:crossAx val="559790592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2453,7 +2456,7 @@
         <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2494,7 @@
         <xdr:cNvPr id="6" name="Graphique 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2532,7 @@
         <xdr:cNvPr id="7" name="Graphique 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4097,7 +4100,7 @@
         <cdr:cNvPr id="13" name="ZoneTexte 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6D5B7B-9FEB-4E2E-AD7A-B8289FC851B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC6D5B7B-9FEB-4E2E-AD7A-B8289FC851B8}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -4192,7 +4195,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="powValues" connectionId="1" xr16:uid="{00000000-0016-0000-0300-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="powValues" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4238,7 +4241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4271,26 +4274,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4323,23 +4309,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5358,37 +5327,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.41796875"/>
+    <col min="1" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -5414,7 +5383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -5440,7 +5409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5466,7 +5435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -5492,7 +5461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5518,7 +5487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -5544,7 +5513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -5570,7 +5539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -5596,7 +5565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -5622,7 +5591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -5648,7 +5617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -5674,7 +5643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -5700,7 +5669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -5726,7 +5695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -5752,7 +5721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -5778,7 +5747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -5804,7 +5773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -5830,7 +5799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -5856,7 +5825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -5882,7 +5851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -5908,7 +5877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -5934,7 +5903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -5960,7 +5929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -5986,7 +5955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -6012,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -6038,7 +6007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -6064,7 +6033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -6090,7 +6059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -6116,7 +6085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -6142,7 +6111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -6168,7 +6137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -6194,7 +6163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -6220,7 +6189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -6246,7 +6215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -6272,7 +6241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -6298,7 +6267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -6324,7 +6293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -6350,7 +6319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -6376,7 +6345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -6402,7 +6371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -6428,7 +6397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -6454,7 +6423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -6480,7 +6449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -6506,7 +6475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -6532,7 +6501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -6558,7 +6527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -6584,7 +6553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -6610,7 +6579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -6636,7 +6605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -6662,7 +6631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -6688,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -6714,7 +6683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -6740,7 +6709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -6766,7 +6735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -6792,7 +6761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -6818,7 +6787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -6844,7 +6813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -6870,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -6896,7 +6865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -6922,7 +6891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>4</v>
       </c>
@@ -6948,7 +6917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>3</v>
       </c>
@@ -6974,7 +6943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -7000,7 +6969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -7026,7 +6995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -7052,7 +7021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -7078,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -7104,7 +7073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -7130,7 +7099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -7156,7 +7125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -7182,7 +7151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -7208,7 +7177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -7234,7 +7203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -7260,7 +7229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -7286,7 +7255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -7312,7 +7281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -7338,7 +7307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -7364,7 +7333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
@@ -7390,7 +7359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -7416,7 +7385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -7442,7 +7411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -7468,7 +7437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -7494,7 +7463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -7520,7 +7489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -7546,7 +7515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -7572,7 +7541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -7598,7 +7567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -7624,7 +7593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -7650,7 +7619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -7676,7 +7645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -7702,7 +7671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -7728,7 +7697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -7754,7 +7723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -7780,7 +7749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -7806,7 +7775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -7832,7 +7801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -7858,7 +7827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -7884,7 +7853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -7910,7 +7879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -7936,7 +7905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -7962,7 +7931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -7988,7 +7957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -8014,7 +7983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -8040,7 +8009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -8066,7 +8035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -8092,7 +8061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -8118,7 +8087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -8144,7 +8113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -8170,7 +8139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -8196,7 +8165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
@@ -8222,7 +8191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -8248,7 +8217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4</v>
       </c>
@@ -8274,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
@@ -8300,7 +8269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
@@ -8326,7 +8295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2</v>
       </c>
@@ -8352,7 +8321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2</v>
       </c>
@@ -8378,7 +8347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -8404,7 +8373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -8430,7 +8399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2</v>
       </c>
@@ -8456,7 +8425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -8482,7 +8451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -8508,7 +8477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4</v>
       </c>
@@ -8534,7 +8503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -8573,19 +8542,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.68359375"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8611,7 +8580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8637,7 +8606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8663,7 +8632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8689,7 +8658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8715,7 +8684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8741,7 +8710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8767,7 +8736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -8793,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -8819,7 +8788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -8845,7 +8814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -8871,7 +8840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -8897,7 +8866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -8923,7 +8892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -8949,7 +8918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8975,7 +8944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -9001,7 +8970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -9027,7 +8996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -9053,7 +9022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -9079,7 +9048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -9105,7 +9074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -9131,7 +9100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -9157,7 +9126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -9183,7 +9152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -9209,7 +9178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -9235,7 +9204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -9261,7 +9230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -9287,7 +9256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -9313,7 +9282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -9339,7 +9308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -9365,7 +9334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -9391,7 +9360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -9417,7 +9386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -9443,7 +9412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -9469,7 +9438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -9495,7 +9464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -9521,7 +9490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -9547,7 +9516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -9573,7 +9542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -9599,7 +9568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -9625,7 +9594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -9651,7 +9620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -9677,7 +9646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -9703,7 +9672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -9729,7 +9698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -9755,7 +9724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -9781,7 +9750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -9807,7 +9776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -9833,7 +9802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -9859,7 +9828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -9885,7 +9854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -9911,7 +9880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -9937,7 +9906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -9963,7 +9932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -9989,7 +9958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -10015,7 +9984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -10041,7 +10010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -10067,7 +10036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -10093,7 +10062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
@@ -10119,7 +10088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4</v>
       </c>
@@ -10145,7 +10114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -10171,7 +10140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -10197,7 +10166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4</v>
       </c>
@@ -10223,7 +10192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -10249,7 +10218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -10275,7 +10244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -10301,7 +10270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -10327,7 +10296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -10353,7 +10322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5</v>
       </c>
@@ -10379,7 +10348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -10405,7 +10374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -10431,7 +10400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4</v>
       </c>
@@ -10457,7 +10426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -10483,7 +10452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
@@ -10509,7 +10478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -10535,7 +10504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -10561,7 +10530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -10587,7 +10556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -10613,7 +10582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -10639,7 +10608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -10665,7 +10634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -10691,7 +10660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -10717,7 +10686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -10743,7 +10712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -10769,7 +10738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -10795,7 +10764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -10821,7 +10790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -10847,7 +10816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -10873,7 +10842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -10899,7 +10868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -10925,7 +10894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -10951,7 +10920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -10977,7 +10946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -11003,7 +10972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -11029,7 +10998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -11055,7 +11024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -11081,7 +11050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -11107,7 +11076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -11133,7 +11102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -11159,7 +11128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -11185,7 +11154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -11211,7 +11180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -11237,7 +11206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -11263,7 +11232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -11289,7 +11258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -11315,7 +11284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -11341,7 +11310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -11367,7 +11336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -11393,7 +11362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -11419,7 +11388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -11445,7 +11414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
@@ -11471,7 +11440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
@@ -11497,7 +11466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
@@ -11523,7 +11492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
@@ -11549,7 +11518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -11575,7 +11544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2</v>
       </c>
@@ -11601,7 +11570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -11627,7 +11596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2</v>
       </c>
@@ -11653,7 +11622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -11679,7 +11648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -11705,7 +11674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -11731,7 +11700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -11757,7 +11726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -11790,37 +11759,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.41796875"/>
+    <col min="1" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11846,7 +11815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11872,7 +11841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -11898,7 +11867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -11924,7 +11893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -11950,7 +11919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11976,7 +11945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -12002,7 +11971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -12028,7 +11997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -12054,7 +12023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -12080,7 +12049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -12106,7 +12075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -12132,7 +12101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -12158,7 +12127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -12184,7 +12153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -12210,7 +12179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -12236,7 +12205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -12262,7 +12231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -12288,7 +12257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -12314,7 +12283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12340,7 +12309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -12366,7 +12335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -12392,7 +12361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -12418,7 +12387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -12444,7 +12413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -12470,7 +12439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -12496,7 +12465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -12522,7 +12491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -12548,7 +12517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -12574,7 +12543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -12600,7 +12569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -12626,7 +12595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -12652,7 +12621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -12678,7 +12647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -12704,7 +12673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -12730,7 +12699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -12756,7 +12725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -12782,7 +12751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -12808,7 +12777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -12834,7 +12803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -12860,7 +12829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -12886,7 +12855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -12912,7 +12881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -12938,7 +12907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -12964,7 +12933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -12990,7 +12959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -13016,7 +12985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -13042,7 +13011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -13068,7 +13037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -13094,7 +13063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -13120,7 +13089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -13146,7 +13115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -13172,7 +13141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -13198,7 +13167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -13224,7 +13193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -13250,7 +13219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -13276,7 +13245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -13302,7 +13271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -13328,7 +13297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -13354,7 +13323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -13380,7 +13349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -13406,7 +13375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -13432,7 +13401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -13458,7 +13427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -13484,7 +13453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -13510,7 +13479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -13536,7 +13505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -13562,7 +13531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -13588,7 +13557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -13614,7 +13583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -13640,7 +13609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -13666,7 +13635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -13692,7 +13661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
@@ -13718,7 +13687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -13744,7 +13713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -13770,7 +13739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -13796,7 +13765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -13822,7 +13791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -13848,7 +13817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -13874,7 +13843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -13900,7 +13869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -13926,7 +13895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -13952,7 +13921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -13978,7 +13947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -14004,7 +13973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -14030,7 +13999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -14056,7 +14025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -14082,7 +14051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -14108,7 +14077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -14134,7 +14103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -14160,7 +14129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -14186,7 +14155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -14212,7 +14181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -14238,7 +14207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -14264,7 +14233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -14290,7 +14259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -14316,7 +14285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -14342,7 +14311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -14368,7 +14337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -14394,7 +14363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -14420,7 +14389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -14446,7 +14415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -14472,7 +14441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -14498,7 +14467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -14524,7 +14493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -14550,7 +14519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3</v>
       </c>
@@ -14576,7 +14545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -14602,7 +14571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -14628,7 +14597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
@@ -14654,7 +14623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -14680,7 +14649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
@@ -14706,7 +14675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
@@ -14732,7 +14701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
@@ -14758,7 +14727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2</v>
       </c>
@@ -14784,7 +14753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2</v>
       </c>
@@ -14810,7 +14779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -14836,7 +14805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2</v>
       </c>
@@ -14862,7 +14831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -14888,7 +14857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2</v>
       </c>
@@ -14914,7 +14883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -14940,7 +14909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2</v>
       </c>
@@ -14966,7 +14935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -15005,16 +14974,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC823D7-300F-4EE7-A4A0-74F1D74EE094}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H15" sqref="H15:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -15028,7 +14997,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -15042,7 +15011,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>17</v>
       </c>
@@ -15056,7 +15025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>19</v>
       </c>
@@ -15070,7 +15039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -15084,7 +15053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21</v>
       </c>
@@ -15098,7 +15067,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>22</v>
       </c>
@@ -15112,7 +15081,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>23</v>
       </c>
@@ -15126,7 +15095,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24</v>
       </c>
@@ -15140,7 +15109,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>25</v>
       </c>
@@ -15153,20 +15122,20 @@
       <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
+      <c r="I10" s="15"/>
+      <c r="J10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12" t="s">
+      <c r="K10" s="15"/>
+      <c r="L10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>26</v>
       </c>
@@ -15182,20 +15151,20 @@
       <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="16"/>
+      <c r="J11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13" t="s">
+      <c r="K11" s="16"/>
+      <c r="L11" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>27</v>
       </c>
@@ -15211,20 +15180,20 @@
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11" t="s">
+      <c r="I12" s="13"/>
+      <c r="J12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>28</v>
       </c>
@@ -15240,20 +15209,20 @@
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="13"/>
+      <c r="J13" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29</v>
       </c>
@@ -15267,7 +15236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>30</v>
       </c>
@@ -15280,17 +15249,17 @@
       <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31</v>
       </c>
@@ -15306,17 +15275,17 @@
       <c r="G16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>32</v>
       </c>
@@ -15332,17 +15301,17 @@
       <c r="G17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>33</v>
       </c>
@@ -15356,7 +15325,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>34</v>
       </c>
@@ -15370,7 +15339,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>35</v>
       </c>
@@ -15384,7 +15353,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>36</v>
       </c>
@@ -15398,7 +15367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>37</v>
       </c>
@@ -15412,7 +15381,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>38</v>
       </c>
@@ -15426,7 +15395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>39</v>
       </c>
@@ -15440,7 +15409,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>40</v>
       </c>
@@ -15454,7 +15423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>41</v>
       </c>
@@ -15468,7 +15437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>42</v>
       </c>
@@ -15482,7 +15451,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>43</v>
       </c>
@@ -15496,7 +15465,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>44</v>
       </c>
@@ -15510,7 +15479,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>45</v>
       </c>
@@ -15524,7 +15493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>46</v>
       </c>
@@ -15538,7 +15507,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>47</v>
       </c>
@@ -15552,7 +15521,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>48</v>
       </c>
@@ -15566,7 +15535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>49</v>
       </c>
@@ -15580,7 +15549,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>50</v>
       </c>
@@ -15594,7 +15563,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>51</v>
       </c>
@@ -15608,7 +15577,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>52</v>
       </c>
@@ -15622,7 +15591,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>53</v>
       </c>
@@ -15636,7 +15605,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>54</v>
       </c>
@@ -15650,7 +15619,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>55</v>
       </c>
@@ -15664,7 +15633,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>56</v>
       </c>
@@ -15678,7 +15647,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>57</v>
       </c>
@@ -15692,7 +15661,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>58</v>
       </c>
@@ -15706,7 +15675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>59</v>
       </c>
@@ -15720,7 +15689,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>60</v>
       </c>
@@ -15734,7 +15703,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>61</v>
       </c>
@@ -15748,7 +15717,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>62</v>
       </c>
@@ -15762,7 +15731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>63</v>
       </c>
@@ -15776,7 +15745,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>64</v>
       </c>
@@ -15790,7 +15759,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>65</v>
       </c>
@@ -15804,7 +15773,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>66</v>
       </c>
@@ -15818,7 +15787,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>67</v>
       </c>
@@ -15832,7 +15801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>68</v>
       </c>
@@ -15846,7 +15815,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>69</v>
       </c>
@@ -15860,7 +15829,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>70</v>
       </c>
@@ -15874,7 +15843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>71</v>
       </c>
@@ -15888,7 +15857,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>72</v>
       </c>
@@ -15902,7 +15871,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>73</v>
       </c>
@@ -15916,7 +15885,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>74</v>
       </c>
@@ -15930,7 +15899,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>75</v>
       </c>
@@ -15944,7 +15913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>76</v>
       </c>
@@ -15958,7 +15927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>77</v>
       </c>
@@ -15972,7 +15941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>79</v>
       </c>
@@ -15986,7 +15955,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>75</v>
       </c>
@@ -16000,7 +15969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>76</v>
       </c>
@@ -16014,7 +15983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>77</v>
       </c>
@@ -16028,7 +15997,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>78</v>
       </c>
@@ -16042,7 +16011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>79</v>
       </c>
@@ -16076,221 +16045,221 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I50" sqref="I50:L51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.15625"/>
-    <col min="2" max="2" width="15.15625"/>
+    <col min="1" max="1" width="21.140625"/>
+    <col min="2" max="2" width="15.140625"/>
     <col min="3" max="3" width="14"/>
-    <col min="4" max="4" width="14.41796875"/>
-    <col min="5" max="1025" width="10.83984375"/>
+    <col min="4" max="4" width="14.42578125"/>
+    <col min="5" max="1025" width="10.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="16">
         <v>704</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16">
         <v>3231</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16">
         <v>631.5</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16">
         <v>2704</v>
       </c>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="14"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="16">
         <v>-4.6113759999999999</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16">
         <v>-5.2967690000000003</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16">
         <v>-6.278918</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16">
         <v>-0.43531130000000001</v>
       </c>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="14"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="13">
         <v>2.8789999999999999E-6</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14">
         <v>7.3070000000000005E-8</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14">
         <v>1.419E-10</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="13">
+      <c r="H4" s="14"/>
+      <c r="I4" s="16">
         <v>0.6583</v>
       </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="14"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="13">
         <v>-0.29521310000000001</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14">
         <v>-0.33909089999999997</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14">
         <v>-0.40196660000000001</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="13">
+      <c r="H5" s="14"/>
+      <c r="I5" s="16">
         <v>-2.7867949999999999E-2</v>
       </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="15" t="s">
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="25">
         <v>1258.5</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25">
         <v>1983.5</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25">
         <v>1609</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16">
+      <c r="H6" s="25"/>
+      <c r="I6" s="25">
         <v>3140</v>
       </c>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="15"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="25">
         <v>-1.5711930000000001</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25">
         <v>-2.2064729999999999</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25">
         <v>-1.4521390000000001</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25">
         <v>-1.3295509999999999</v>
       </c>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="15"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="26">
         <v>0.1105</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18">
+      <c r="D8" s="26"/>
+      <c r="E8" s="27">
         <v>2.461E-2</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="F8" s="27"/>
+      <c r="G8" s="27">
         <v>0.13980000000000001</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="19">
         <v>0.17580000000000001</v>
       </c>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="26">
         <v>-0.1005853</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18">
+      <c r="D9" s="26"/>
+      <c r="E9" s="27">
         <v>-0.14125499999999999</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27">
         <v>-9.2963649999999995E-2</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="19">
         <v>-8.5115780000000002E-2</v>
       </c>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
@@ -16305,16 +16274,16 @@
         <v>2875</v>
       </c>
       <c r="F10" s="21"/>
-      <c r="G10" s="22">
+      <c r="G10" s="17">
         <v>415.5</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17">
         <v>2255</v>
       </c>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -16327,24 +16296,24 @@
         <v>-5.7182069999999996</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="22">
+      <c r="G11" s="17">
         <v>-7.0561369999999997</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17">
         <v>-0.76786379999999999</v>
       </c>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>2.523E-10</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="21">
         <v>6.8489999999999998E-9</v>
       </c>
@@ -16353,12 +16322,12 @@
         <v>8.1889999999999997E-13</v>
       </c>
       <c r="H12" s="21"/>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <v>0.43509999999999999</v>
       </c>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>12</v>
@@ -16371,39 +16340,39 @@
         <v>-0.36607070000000003</v>
       </c>
       <c r="F13" s="21"/>
-      <c r="G13" s="22">
+      <c r="G13" s="17">
         <v>-0.45172289999999998</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17">
         <v>-4.9157439999999997E-2</v>
       </c>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" s="17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -16417,7 +16386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
@@ -16431,7 +16400,7 @@
         <v>1.319672</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -16445,7 +16414,7 @@
         <v>1.2950820000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
@@ -16459,7 +16428,7 @@
         <v>1.319672</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
@@ -16473,7 +16442,7 @@
         <v>1.6393439999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
@@ -16481,7 +16450,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -16495,7 +16464,7 @@
         <v>1.0929249999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
@@ -16509,7 +16478,7 @@
         <v>1.1901010000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
@@ -16523,7 +16492,7 @@
         <v>1.0929249999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>23</v>
       </c>
@@ -16537,7 +16506,7 @@
         <v>1.1717439999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
@@ -16548,7 +16517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
@@ -16562,7 +16531,7 @@
         <v>0.71389999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -16576,7 +16545,7 @@
         <v>0.27910000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>22</v>
       </c>
@@ -16590,7 +16559,7 @@
         <v>0.71389999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>23</v>
       </c>
@@ -16604,22 +16573,22 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25" t="s">
+      <c r="C41" s="18"/>
+      <c r="D41" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25" t="s">
+      <c r="E41" s="18"/>
+      <c r="F41" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="25"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>35</v>
       </c>
@@ -16642,7 +16611,7 @@
         <v>0.94033489999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>31</v>
       </c>
@@ -16665,7 +16634,7 @@
         <v>1.0831820000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>36</v>
       </c>
@@ -16692,7 +16661,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>32</v>
       </c>
@@ -16719,7 +16688,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>37</v>
       </c>
@@ -16741,20 +16710,20 @@
       <c r="G46" s="5">
         <v>1.0062800000000001</v>
       </c>
-      <c r="I46" s="26">
+      <c r="I46" s="9">
         <v>1.991803</v>
       </c>
-      <c r="J46" s="26">
+      <c r="J46" s="9">
         <v>3.8114750000000002</v>
       </c>
-      <c r="K46" s="26">
+      <c r="K46" s="9">
         <v>2.278689</v>
       </c>
-      <c r="L46" s="26">
+      <c r="L46" s="9">
         <v>3.0245899999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
@@ -16776,20 +16745,20 @@
       <c r="G47" s="5">
         <v>1.0095400000000001</v>
       </c>
-      <c r="I47" s="26">
+      <c r="I47" s="9">
         <v>0.94033489999999997</v>
       </c>
-      <c r="J47" s="26">
+      <c r="J47" s="9">
         <v>0.93889299999999998</v>
       </c>
-      <c r="K47" s="26">
+      <c r="K47" s="9">
         <v>1.0062800000000001</v>
       </c>
-      <c r="L47" s="26">
+      <c r="L47" s="9">
         <v>1.124212</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>38</v>
       </c>
@@ -16816,7 +16785,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>34</v>
       </c>
@@ -16839,35 +16808,35 @@
         <v>1.103658</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="I50" s="26">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I50" s="9">
         <v>2.9836070000000001</v>
       </c>
-      <c r="J50" s="26">
+      <c r="J50" s="9">
         <v>2.877049</v>
       </c>
-      <c r="K50" s="26">
+      <c r="K50" s="9">
         <v>3.5983610000000001</v>
       </c>
-      <c r="L50" s="26">
+      <c r="L50" s="9">
         <v>3.1721309999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="I51" s="26">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I51" s="9">
         <v>1.0831820000000001</v>
       </c>
-      <c r="J51" s="26">
+      <c r="J51" s="9">
         <v>1.117686</v>
       </c>
-      <c r="K51" s="26">
+      <c r="K51" s="9">
         <v>1.0095400000000001</v>
       </c>
-      <c r="L51" s="26">
+      <c r="L51" s="9">
         <v>1.103658</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -16878,7 +16847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>1.75</v>
       </c>
@@ -16887,7 +16856,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>1.75</v>
       </c>
@@ -16896,7 +16865,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>2.2000000000000002</v>
       </c>
@@ -16905,7 +16874,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>2.2000000000000002</v>
       </c>
@@ -16914,7 +16883,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -16925,7 +16894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>0.75</v>
       </c>
@@ -16934,7 +16903,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0.75</v>
       </c>
@@ -16943,7 +16912,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1.2</v>
       </c>
@@ -16952,7 +16921,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>1.2</v>
       </c>
@@ -16961,12 +16930,12 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65">
         <f>2+B59</f>
         <v>2.75</v>
@@ -16976,7 +16945,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66">
         <f t="shared" ref="B66:B68" si="2">2+B60</f>
         <v>2.75</v>
@@ -16986,7 +16955,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67">
         <f t="shared" si="2"/>
         <v>3.2</v>
@@ -16996,7 +16965,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68">
         <f t="shared" si="2"/>
         <v>3.2</v>
@@ -17006,7 +16975,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70">
         <f>3+B59</f>
         <v>3.75</v>
@@ -17016,7 +16985,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71">
         <f t="shared" ref="B71:B73" si="4">3+B60</f>
         <v>3.75</v>
@@ -17026,7 +16995,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72">
         <f t="shared" si="4"/>
         <v>4.2</v>
@@ -17036,7 +17005,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73">
         <f t="shared" si="4"/>
         <v>4.2</v>
@@ -17048,12 +17017,43 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="C10:D10"/>
@@ -17070,43 +17070,12 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -17118,16 +17087,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.578125"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/ToM/compVsMimic_Etude/EtudeFinale/Resultats/ComportementPow.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Resultats/ComportementPow.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Resultats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82C84950-A41D-44AC-A458-CD3778405443}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6075" tabRatio="991" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6078" tabRatio="991" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowBob" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
   <definedNames>
     <definedName name="powValues" localSheetId="3">powNegotiation!$A$1:$D$68</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,8 +33,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="powValues" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="powValues" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Data\powValues.csv" decimal="," thousands=" " tab="0" semicolon="1">
       <textFields count="4">
         <textField/>
@@ -42,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>H1</t>
   </si>
@@ -176,51 +182,6 @@
     <t>D3</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.6499999999999999</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>0.4000000000000001</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.8500000000000001</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>kevin</t>
   </si>
   <si>
@@ -245,62 +206,23 @@
     <t>SD</t>
   </si>
   <si>
-    <t>0.5149254</t>
-  </si>
-  <si>
-    <t>0.1749491</t>
-  </si>
-  <si>
-    <t>0.6455224</t>
-  </si>
-  <si>
-    <t>0.2143933</t>
-  </si>
-  <si>
-    <t>0.6604478</t>
-  </si>
-  <si>
-    <t>3.351301</t>
-  </si>
-  <si>
-    <t>0.2895083</t>
-  </si>
-  <si>
-    <t>0.0007976</t>
-  </si>
-  <si>
-    <t>0.0001019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.885164 </t>
-  </si>
-  <si>
-    <t>0.3356271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4453306 </t>
-  </si>
-  <si>
-    <t>0.0384707</t>
-  </si>
-  <si>
-    <t>0.6559</t>
-  </si>
-  <si>
-    <t>somilaire</t>
-  </si>
-  <si>
     <t>neutre</t>
   </si>
   <si>
     <t>comp.</t>
   </si>
+  <si>
+    <t>similaire</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -322,12 +244,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -399,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -413,9 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,26 +344,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,9 +359,29 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,7 +469,402 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F454-4E0A-94EF-ED82497F8049}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F454-4E0A-94EF-ED82497F8049}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>powNegotiation!$H$17:$J$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.1749491</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.21439330000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.21439330000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>powNegotiation!$H$17:$J$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.1749491</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.21439330000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.21439330000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>powNegotiation!$H$15:$J$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>comp.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>similaire</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>neutre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>powNegotiation!$H$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.51492539999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64552240000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66044780000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F454-4E0A-94EF-ED82497F8049}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="601625416"/>
+        <c:axId val="601624760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="601625416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601624760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="601624760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Comportements de pouvoir</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601625416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -693,7 +1003,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-42DC-44FD-AF77-E2FCFA18FED9}"/>
             </c:ext>
@@ -781,7 +1091,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-42DC-44FD-AF77-E2FCFA18FED9}"/>
             </c:ext>
@@ -861,7 +1171,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-42DC-44FD-AF77-E2FCFA18FED9}"/>
             </c:ext>
@@ -926,7 +1236,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-42DC-44FD-AF77-E2FCFA18FED9}"/>
             </c:ext>
@@ -991,7 +1301,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-42DC-44FD-AF77-E2FCFA18FED9}"/>
             </c:ext>
@@ -1056,7 +1366,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-42DC-44FD-AF77-E2FCFA18FED9}"/>
             </c:ext>
@@ -1191,8 +1501,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1331,7 +1641,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C041-4752-B6A0-B1DA9F4EB0CF}"/>
             </c:ext>
@@ -1378,7 +1688,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C041-4752-B6A0-B1DA9F4EB0CF}"/>
             </c:ext>
@@ -1458,7 +1768,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C041-4752-B6A0-B1DA9F4EB0CF}"/>
             </c:ext>
@@ -1523,7 +1833,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C041-4752-B6A0-B1DA9F4EB0CF}"/>
             </c:ext>
@@ -1588,7 +1898,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C041-4752-B6A0-B1DA9F4EB0CF}"/>
             </c:ext>
@@ -1653,7 +1963,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C041-4752-B6A0-B1DA9F4EB0CF}"/>
             </c:ext>
@@ -1788,8 +2098,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1938,7 +2248,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A1F2-40B4-BF22-27F4C4F36424}"/>
             </c:ext>
@@ -2026,7 +2336,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A1F2-40B4-BF22-27F4C4F36424}"/>
             </c:ext>
@@ -2106,7 +2416,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A1F2-40B4-BF22-27F4C4F36424}"/>
             </c:ext>
@@ -2171,7 +2481,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A1F2-40B4-BF22-27F4C4F36424}"/>
             </c:ext>
@@ -2236,7 +2546,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A1F2-40B4-BF22-27F4C4F36424}"/>
             </c:ext>
@@ -2301,7 +2611,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A1F2-40B4-BF22-27F4C4F36424}"/>
             </c:ext>
@@ -2436,7 +2746,591 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>712470</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C266F5-6E95-4379-B886-24BF9C9FC6F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2456,7 +3350,7 @@
         <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +3388,7 @@
         <xdr:cNvPr id="6" name="Graphique 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,7 +3426,7 @@
         <xdr:cNvPr id="7" name="Graphique 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2555,7 +3449,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -3145,7 +4039,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -3502,7 +4396,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -4100,7 +4994,7 @@
         <cdr:cNvPr id="13" name="ZoneTexte 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC6D5B7B-9FEB-4E2E-AD7A-B8289FC851B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6D5B7B-9FEB-4E2E-AD7A-B8289FC851B8}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -4195,7 +5089,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="powValues" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="powValues" connectionId="1" xr16:uid="{00000000-0016-0000-0300-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4241,7 +5135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4274,9 +5168,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4309,6 +5220,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5327,37 +6255,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1025" width="8.42578125"/>
+    <col min="1" max="1025" width="8.41796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -5383,7 +6311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -5409,7 +6337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5435,7 +6363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -5461,7 +6389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5487,7 +6415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -5513,7 +6441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -5539,7 +6467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -5565,7 +6493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -5591,7 +6519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -5617,7 +6545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -5643,7 +6571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -5669,7 +6597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -5695,7 +6623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -5721,7 +6649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -5747,7 +6675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -5773,7 +6701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -5799,7 +6727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -5825,7 +6753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -5851,7 +6779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -5877,7 +6805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -5903,7 +6831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -5929,7 +6857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -5955,7 +6883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -5981,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -6007,7 +6935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -6033,7 +6961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -6059,7 +6987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -6085,7 +7013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -6111,7 +7039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -6137,7 +7065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -6163,7 +7091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -6189,7 +7117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -6215,7 +7143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -6241,7 +7169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -6267,7 +7195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -6293,7 +7221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -6319,7 +7247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -6345,7 +7273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -6371,7 +7299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -6397,7 +7325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -6423,7 +7351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -6449,7 +7377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -6475,7 +7403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -6501,7 +7429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -6527,7 +7455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -6553,7 +7481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -6579,7 +7507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -6605,7 +7533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -6631,7 +7559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -6657,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -6683,7 +7611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -6709,7 +7637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -6735,7 +7663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -6761,7 +7689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -6787,7 +7715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -6813,7 +7741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -6839,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -6865,7 +7793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -6891,7 +7819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>4</v>
       </c>
@@ -6917,7 +7845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>3</v>
       </c>
@@ -6943,7 +7871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>2</v>
       </c>
@@ -6969,7 +7897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>3</v>
       </c>
@@ -6995,7 +7923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>1</v>
       </c>
@@ -7021,7 +7949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>2</v>
       </c>
@@ -7047,7 +7975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>1</v>
       </c>
@@ -7073,7 +8001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>2</v>
       </c>
@@ -7099,7 +8027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>2</v>
       </c>
@@ -7125,7 +8053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>2</v>
       </c>
@@ -7151,7 +8079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>1</v>
       </c>
@@ -7177,7 +8105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>1</v>
       </c>
@@ -7203,7 +8131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>1</v>
       </c>
@@ -7229,7 +8157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>2</v>
       </c>
@@ -7255,7 +8183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>2</v>
       </c>
@@ -7281,7 +8209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>2</v>
       </c>
@@ -7307,7 +8235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>2</v>
       </c>
@@ -7333,7 +8261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>4</v>
       </c>
@@ -7359,7 +8287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>1</v>
       </c>
@@ -7385,7 +8313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>1</v>
       </c>
@@ -7411,7 +8339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>2</v>
       </c>
@@ -7437,7 +8365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>1</v>
       </c>
@@ -7463,7 +8391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>2</v>
       </c>
@@ -7489,7 +8417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>3</v>
       </c>
@@ -7515,7 +8443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>2</v>
       </c>
@@ -7541,7 +8469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>1</v>
       </c>
@@ -7567,7 +8495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>2</v>
       </c>
@@ -7593,7 +8521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>1</v>
       </c>
@@ -7619,7 +8547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>2</v>
       </c>
@@ -7645,7 +8573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>4</v>
       </c>
@@ -7671,7 +8599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>4</v>
       </c>
@@ -7697,7 +8625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>1</v>
       </c>
@@ -7723,7 +8651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>2</v>
       </c>
@@ -7749,7 +8677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>2</v>
       </c>
@@ -7775,7 +8703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>1</v>
       </c>
@@ -7801,7 +8729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>4</v>
       </c>
@@ -7827,7 +8755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>1</v>
       </c>
@@ -7853,7 +8781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>1</v>
       </c>
@@ -7879,7 +8807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>2</v>
       </c>
@@ -7905,7 +8833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>2</v>
       </c>
@@ -7931,7 +8859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>2</v>
       </c>
@@ -7957,7 +8885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>2</v>
       </c>
@@ -7983,7 +8911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>2</v>
       </c>
@@ -8009,7 +8937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>2</v>
       </c>
@@ -8035,7 +8963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>1</v>
       </c>
@@ -8061,7 +8989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>1</v>
       </c>
@@ -8087,7 +9015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>1</v>
       </c>
@@ -8113,7 +9041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>1</v>
       </c>
@@ -8139,7 +9067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>1</v>
       </c>
@@ -8165,7 +9093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>2</v>
       </c>
@@ -8191,7 +9119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>1</v>
       </c>
@@ -8217,7 +9145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>4</v>
       </c>
@@ -8243,7 +9171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>2</v>
       </c>
@@ -8269,7 +9197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>2</v>
       </c>
@@ -8295,7 +9223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>2</v>
       </c>
@@ -8321,7 +9249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>2</v>
       </c>
@@ -8347,7 +9275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>1</v>
       </c>
@@ -8373,7 +9301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>1</v>
       </c>
@@ -8399,7 +9327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>2</v>
       </c>
@@ -8425,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>1</v>
       </c>
@@ -8451,7 +9379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>2</v>
       </c>
@@ -8477,7 +9405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>4</v>
       </c>
@@ -8503,7 +9431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>2</v>
       </c>
@@ -8542,19 +9470,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375"/>
+    <col min="1" max="1025" width="8.68359375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8580,7 +9508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8606,7 +9534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8632,7 +9560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8658,7 +9586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8684,7 +9612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8710,7 +9638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8736,7 +9664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>4</v>
       </c>
@@ -8762,7 +9690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>4</v>
       </c>
@@ -8788,7 +9716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>4</v>
       </c>
@@ -8814,7 +9742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>4</v>
       </c>
@@ -8840,7 +9768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>2</v>
       </c>
@@ -8866,7 +9794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>3</v>
       </c>
@@ -8892,7 +9820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>4</v>
       </c>
@@ -8918,7 +9846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8944,7 +9872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>2</v>
       </c>
@@ -8970,7 +9898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>2</v>
       </c>
@@ -8996,7 +9924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>2</v>
       </c>
@@ -9022,7 +9950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>3</v>
       </c>
@@ -9048,7 +9976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>5</v>
       </c>
@@ -9074,7 +10002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>2</v>
       </c>
@@ -9100,7 +10028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>1</v>
       </c>
@@ -9126,7 +10054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>2</v>
       </c>
@@ -9152,7 +10080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>3</v>
       </c>
@@ -9178,7 +10106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>5</v>
       </c>
@@ -9204,7 +10132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>5</v>
       </c>
@@ -9230,7 +10158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>3</v>
       </c>
@@ -9256,7 +10184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>2</v>
       </c>
@@ -9282,7 +10210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>4</v>
       </c>
@@ -9308,7 +10236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>3</v>
       </c>
@@ -9334,7 +10262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>3</v>
       </c>
@@ -9360,7 +10288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>2</v>
       </c>
@@ -9386,7 +10314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>1</v>
       </c>
@@ -9412,7 +10340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>1</v>
       </c>
@@ -9438,7 +10366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>2</v>
       </c>
@@ -9464,7 +10392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>2</v>
       </c>
@@ -9490,7 +10418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>2</v>
       </c>
@@ -9516,7 +10444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>2</v>
       </c>
@@ -9542,7 +10470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>2</v>
       </c>
@@ -9568,7 +10496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>2</v>
       </c>
@@ -9594,7 +10522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>4</v>
       </c>
@@ -9620,7 +10548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>2</v>
       </c>
@@ -9646,7 +10574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>4</v>
       </c>
@@ -9672,7 +10600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>2</v>
       </c>
@@ -9698,7 +10626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>2</v>
       </c>
@@ -9724,7 +10652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>4</v>
       </c>
@@ -9750,7 +10678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>3</v>
       </c>
@@ -9776,7 +10704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>4</v>
       </c>
@@ -9802,7 +10730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>1</v>
       </c>
@@ -9828,7 +10756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>3</v>
       </c>
@@ -9854,7 +10782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>2</v>
       </c>
@@ -9880,7 +10808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>2</v>
       </c>
@@ -9906,7 +10834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>4</v>
       </c>
@@ -9932,7 +10860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>3</v>
       </c>
@@ -9958,7 +10886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>2</v>
       </c>
@@ -9984,7 +10912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>3</v>
       </c>
@@ -10010,7 +10938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>2</v>
       </c>
@@ -10036,7 +10964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>1</v>
       </c>
@@ -10062,7 +10990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>4</v>
       </c>
@@ -10088,7 +11016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>4</v>
       </c>
@@ -10114,7 +11042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>2</v>
       </c>
@@ -10140,7 +11068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>3</v>
       </c>
@@ -10166,7 +11094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>4</v>
       </c>
@@ -10192,7 +11120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>1</v>
       </c>
@@ -10218,7 +11146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>2</v>
       </c>
@@ -10244,7 +11172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>2</v>
       </c>
@@ -10270,7 +11198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>4</v>
       </c>
@@ -10296,7 +11224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>2</v>
       </c>
@@ -10322,7 +11250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>5</v>
       </c>
@@ -10348,7 +11276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>4</v>
       </c>
@@ -10374,7 +11302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>1</v>
       </c>
@@ -10400,7 +11328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>4</v>
       </c>
@@ -10426,7 +11354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>2</v>
       </c>
@@ -10452,7 +11380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>4</v>
       </c>
@@ -10478,7 +11406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>3</v>
       </c>
@@ -10504,7 +11432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>2</v>
       </c>
@@ -10530,7 +11458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>2</v>
       </c>
@@ -10556,7 +11484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>2</v>
       </c>
@@ -10582,7 +11510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>1</v>
       </c>
@@ -10608,7 +11536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>2</v>
       </c>
@@ -10634,7 +11562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>2</v>
       </c>
@@ -10660,7 +11588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>2</v>
       </c>
@@ -10686,7 +11614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>2</v>
       </c>
@@ -10712,7 +11640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>2</v>
       </c>
@@ -10738,7 +11666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>2</v>
       </c>
@@ -10764,7 +11692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>1</v>
       </c>
@@ -10790,7 +11718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>3</v>
       </c>
@@ -10816,7 +11744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>3</v>
       </c>
@@ -10842,7 +11770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>2</v>
       </c>
@@ -10868,7 +11796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>2</v>
       </c>
@@ -10894,7 +11822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>2</v>
       </c>
@@ -10920,7 +11848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>1</v>
       </c>
@@ -10946,7 +11874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>1</v>
       </c>
@@ -10972,7 +11900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>1</v>
       </c>
@@ -10998,7 +11926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>1</v>
       </c>
@@ -11024,7 +11952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>1</v>
       </c>
@@ -11050,7 +11978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>2</v>
       </c>
@@ -11076,7 +12004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>2</v>
       </c>
@@ -11102,7 +12030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>2</v>
       </c>
@@ -11128,7 +12056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>2</v>
       </c>
@@ -11154,7 +12082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>2</v>
       </c>
@@ -11180,7 +12108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>2</v>
       </c>
@@ -11206,7 +12134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>2</v>
       </c>
@@ -11232,7 +12160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>4</v>
       </c>
@@ -11258,7 +12186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>2</v>
       </c>
@@ -11284,7 +12212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>1</v>
       </c>
@@ -11310,7 +12238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>2</v>
       </c>
@@ -11336,7 +12264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>2</v>
       </c>
@@ -11362,7 +12290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>2</v>
       </c>
@@ -11388,7 +12316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>1</v>
       </c>
@@ -11414,7 +12342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>2</v>
       </c>
@@ -11440,7 +12368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>2</v>
       </c>
@@ -11466,7 +12394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>2</v>
       </c>
@@ -11492,7 +12420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>2</v>
       </c>
@@ -11518,7 +12446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>5</v>
       </c>
@@ -11544,7 +12472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>2</v>
       </c>
@@ -11570,7 +12498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>1</v>
       </c>
@@ -11596,7 +12524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>2</v>
       </c>
@@ -11622,7 +12550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>1</v>
       </c>
@@ -11648,7 +12576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>5</v>
       </c>
@@ -11674,7 +12602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>2</v>
       </c>
@@ -11700,7 +12628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>1</v>
       </c>
@@ -11726,7 +12654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>2</v>
       </c>
@@ -11759,37 +12687,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1025" width="8.42578125"/>
+    <col min="1" max="1025" width="8.41796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11815,7 +12743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11841,7 +12769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>4</v>
       </c>
@@ -11867,7 +12795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1</v>
       </c>
@@ -11893,7 +12821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2</v>
       </c>
@@ -11919,7 +12847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11945,7 +12873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>2</v>
       </c>
@@ -11971,7 +12899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2</v>
       </c>
@@ -11997,7 +12925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>2</v>
       </c>
@@ -12023,7 +12951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>1</v>
       </c>
@@ -12049,7 +12977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>2</v>
       </c>
@@ -12075,7 +13003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>3</v>
       </c>
@@ -12101,7 +13029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>1</v>
       </c>
@@ -12127,7 +13055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>2</v>
       </c>
@@ -12153,7 +13081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1</v>
       </c>
@@ -12179,7 +13107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>2</v>
       </c>
@@ -12205,7 +13133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>1</v>
       </c>
@@ -12231,7 +13159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>2</v>
       </c>
@@ -12257,7 +13185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>5</v>
       </c>
@@ -12283,7 +13211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12309,7 +13237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>4</v>
       </c>
@@ -12335,7 +13263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>3</v>
       </c>
@@ -12361,7 +13289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>2</v>
       </c>
@@ -12387,7 +13315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>4</v>
       </c>
@@ -12413,7 +13341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>1</v>
       </c>
@@ -12439,7 +13367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>1</v>
       </c>
@@ -12465,7 +13393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>2</v>
       </c>
@@ -12491,7 +13419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>2</v>
       </c>
@@ -12517,7 +13445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>3</v>
       </c>
@@ -12543,7 +13471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>2</v>
       </c>
@@ -12569,7 +13497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>2</v>
       </c>
@@ -12595,7 +13523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>1</v>
       </c>
@@ -12621,7 +13549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>1</v>
       </c>
@@ -12647,7 +13575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>2</v>
       </c>
@@ -12673,7 +13601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>1</v>
       </c>
@@ -12699,7 +13627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>2</v>
       </c>
@@ -12725,7 +13653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>2</v>
       </c>
@@ -12751,7 +13679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>3</v>
       </c>
@@ -12777,7 +13705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>3</v>
       </c>
@@ -12803,7 +13731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>2</v>
       </c>
@@ -12829,7 +13757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>2</v>
       </c>
@@ -12855,7 +13783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>3</v>
       </c>
@@ -12881,7 +13809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>1</v>
       </c>
@@ -12907,7 +13835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>4</v>
       </c>
@@ -12933,7 +13861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>5</v>
       </c>
@@ -12959,7 +13887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>2</v>
       </c>
@@ -12985,7 +13913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>2</v>
       </c>
@@ -13011,7 +13939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>2</v>
       </c>
@@ -13037,7 +13965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>1</v>
       </c>
@@ -13063,7 +13991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>1</v>
       </c>
@@ -13089,7 +14017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>2</v>
       </c>
@@ -13115,7 +14043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>2</v>
       </c>
@@ -13141,7 +14069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>3</v>
       </c>
@@ -13167,7 +14095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>2</v>
       </c>
@@ -13193,7 +14121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>2</v>
       </c>
@@ -13219,7 +14147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>3</v>
       </c>
@@ -13245,7 +14173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>1</v>
       </c>
@@ -13271,7 +14199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>1</v>
       </c>
@@ -13297,7 +14225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>3</v>
       </c>
@@ -13323,7 +14251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>2</v>
       </c>
@@ -13349,7 +14277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>2</v>
       </c>
@@ -13375,7 +14303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>2</v>
       </c>
@@ -13401,7 +14329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>1</v>
       </c>
@@ -13427,7 +14355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>2</v>
       </c>
@@ -13453,7 +14381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>1</v>
       </c>
@@ -13479,7 +14407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>2</v>
       </c>
@@ -13505,7 +14433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>2</v>
       </c>
@@ -13531,7 +14459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>2</v>
       </c>
@@ -13557,7 +14485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>1</v>
       </c>
@@ -13583,7 +14511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>1</v>
       </c>
@@ -13609,7 +14537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>1</v>
       </c>
@@ -13635,7 +14563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>1</v>
       </c>
@@ -13661,7 +14589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>4</v>
       </c>
@@ -13687,7 +14615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>2</v>
       </c>
@@ -13713,7 +14641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>1</v>
       </c>
@@ -13739,7 +14667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>2</v>
       </c>
@@ -13765,7 +14693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>2</v>
       </c>
@@ -13791,7 +14719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>1</v>
       </c>
@@ -13817,7 +14745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>2</v>
       </c>
@@ -13843,7 +14771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>4</v>
       </c>
@@ -13869,7 +14797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>1</v>
       </c>
@@ -13895,7 +14823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>4</v>
       </c>
@@ -13921,7 +14849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>3</v>
       </c>
@@ -13947,7 +14875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>2</v>
       </c>
@@ -13973,7 +14901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>4</v>
       </c>
@@ -13999,7 +14927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>2</v>
       </c>
@@ -14025,7 +14953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>1</v>
       </c>
@@ -14051,7 +14979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>2</v>
       </c>
@@ -14077,7 +15005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>2</v>
       </c>
@@ -14103,7 +15031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>1</v>
       </c>
@@ -14129,7 +15057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>1</v>
       </c>
@@ -14155,7 +15083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>2</v>
       </c>
@@ -14181,7 +15109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>1</v>
       </c>
@@ -14207,7 +15135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>2</v>
       </c>
@@ -14233,7 +15161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>2</v>
       </c>
@@ -14259,7 +15187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>1</v>
       </c>
@@ -14285,7 +15213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>2</v>
       </c>
@@ -14311,7 +15239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>2</v>
       </c>
@@ -14337,7 +15265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>2</v>
       </c>
@@ -14363,7 +15291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>2</v>
       </c>
@@ -14389,7 +15317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>2</v>
       </c>
@@ -14415,7 +15343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>2</v>
       </c>
@@ -14441,7 +15369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>4</v>
       </c>
@@ -14467,7 +15395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>1</v>
       </c>
@@ -14493,7 +15421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>4</v>
       </c>
@@ -14519,7 +15447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>3</v>
       </c>
@@ -14545,7 +15473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>1</v>
       </c>
@@ -14571,7 +15499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>1</v>
       </c>
@@ -14597,7 +15525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>2</v>
       </c>
@@ -14623,7 +15551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>1</v>
       </c>
@@ -14649,7 +15577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>2</v>
       </c>
@@ -14675,7 +15603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>2</v>
       </c>
@@ -14701,7 +15629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>2</v>
       </c>
@@ -14727,7 +15655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>2</v>
       </c>
@@ -14753,7 +15681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>2</v>
       </c>
@@ -14779,7 +15707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>1</v>
       </c>
@@ -14805,7 +15733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>2</v>
       </c>
@@ -14831,7 +15759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>1</v>
       </c>
@@ -14857,7 +15785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>2</v>
       </c>
@@ -14883,7 +15811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>2</v>
       </c>
@@ -14909,7 +15837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>2</v>
       </c>
@@ -14935,7 +15863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>2</v>
       </c>
@@ -14974,1055 +15902,1056 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+      <c r="C2">
+        <v>0.4</v>
+      </c>
+      <c r="D2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+      <c r="C3">
+        <v>0.85</v>
+      </c>
+      <c r="D3">
+        <v>0.64999999999999902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.85</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.85</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.85</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.9</v>
+      </c>
+      <c r="C8">
+        <v>0.85</v>
+      </c>
+      <c r="D8">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15" t="s">
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.9</v>
+      </c>
+      <c r="D10">
+        <v>0.64999999999999902</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>0.9</v>
+      </c>
+      <c r="D11">
+        <v>0.85</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="15">
+        <v>3.3513009999999999</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15">
+        <v>3.8851640000000001</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15">
+        <v>0.44533060000000002</v>
+      </c>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
+      <c r="B12">
+        <v>0.4</v>
+      </c>
+      <c r="C12">
+        <v>0.85</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H12" s="12">
+        <v>7.9759999999999998E-4</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13">
+        <v>1.019E-4</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
+      <c r="B13">
+        <v>0.35</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>0.75</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H13" s="12">
+        <v>0.2895083</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13">
+        <v>0.33562710000000001</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13">
+        <v>3.8470699999999997E-2</v>
+      </c>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>0.75</v>
+      </c>
+      <c r="D14">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
+      <c r="B15">
+        <v>0.4</v>
+      </c>
+      <c r="C15">
+        <v>0.9</v>
+      </c>
+      <c r="D15">
+        <v>0.9</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
+      <c r="B16">
+        <v>0.6</v>
+      </c>
+      <c r="C16">
+        <v>0.7</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0.51492539999999998</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0.64552240000000005</v>
+      </c>
+      <c r="J16" s="29">
+        <v>0.66044780000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
+      <c r="B17">
+        <v>0.45</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>0.4</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="H17" s="29">
+        <v>0.1749491</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0.21439330000000001</v>
+      </c>
+      <c r="J17" s="29">
+        <v>0.21439330000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.4</v>
+      </c>
+      <c r="C18">
+        <v>0.4</v>
+      </c>
+      <c r="D18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.45</v>
+      </c>
+      <c r="C19">
+        <v>0.9</v>
+      </c>
+      <c r="D19">
+        <v>0.64999999999999902</v>
+      </c>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20">
+        <v>0.9</v>
+      </c>
+      <c r="D20">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>36</v>
       </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.35</v>
+      </c>
+      <c r="C21">
+        <v>0.85</v>
+      </c>
+      <c r="D21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.4</v>
+      </c>
+      <c r="C22">
+        <v>0.45</v>
+      </c>
+      <c r="D22">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>38</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.4</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>39</v>
       </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.85</v>
+      </c>
+      <c r="C24">
+        <v>0.4</v>
+      </c>
+      <c r="D24">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>40</v>
       </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25">
+        <v>0.4</v>
+      </c>
+      <c r="D25">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>41</v>
       </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26">
+        <v>0.9</v>
+      </c>
+      <c r="D26">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>42</v>
       </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.3</v>
+      </c>
+      <c r="C27">
+        <v>0.3</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>43</v>
       </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.5</v>
+      </c>
+      <c r="C28">
+        <v>0.4</v>
+      </c>
+      <c r="D28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>44</v>
       </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.4</v>
+      </c>
+      <c r="C29">
+        <v>0.4</v>
+      </c>
+      <c r="D29">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>45</v>
       </c>
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0.75</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>46</v>
       </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.45</v>
+      </c>
+      <c r="C31">
+        <v>0.7</v>
+      </c>
+      <c r="D31">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>47</v>
       </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.5</v>
+      </c>
+      <c r="C32">
+        <v>0.9</v>
+      </c>
+      <c r="D32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>48</v>
       </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.4</v>
+      </c>
+      <c r="C33">
+        <v>0.85</v>
+      </c>
+      <c r="D33">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>49</v>
       </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.85</v>
+      </c>
+      <c r="C34">
+        <v>0.6</v>
+      </c>
+      <c r="D34">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>50</v>
       </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.6</v>
+      </c>
+      <c r="C35">
+        <v>0.3</v>
+      </c>
+      <c r="D35">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>51</v>
       </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.3</v>
+      </c>
+      <c r="C36">
+        <v>0.9</v>
+      </c>
+      <c r="D36">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>52</v>
       </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.45</v>
+      </c>
+      <c r="C37">
+        <v>0.5</v>
+      </c>
+      <c r="D37">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>53</v>
       </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.75</v>
+      </c>
+      <c r="C38">
+        <v>0.4</v>
+      </c>
+      <c r="D38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>54</v>
       </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.75</v>
+      </c>
+      <c r="C39">
+        <v>0.7</v>
+      </c>
+      <c r="D39">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>55</v>
       </c>
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.6</v>
+      </c>
+      <c r="C40">
+        <v>0.6</v>
+      </c>
+      <c r="D40">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>56</v>
       </c>
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.4</v>
+      </c>
+      <c r="C41">
+        <v>0.3</v>
+      </c>
+      <c r="D41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>57</v>
       </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.6</v>
+      </c>
+      <c r="C42">
+        <v>0.6</v>
+      </c>
+      <c r="D42">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>58</v>
       </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0.45</v>
+      </c>
+      <c r="C43">
+        <v>0.9</v>
+      </c>
+      <c r="D43">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>59</v>
       </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0.35</v>
+      </c>
+      <c r="C44">
+        <v>0.9</v>
+      </c>
+      <c r="D44">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>60</v>
       </c>
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0.4</v>
+      </c>
+      <c r="C45">
+        <v>0.7</v>
+      </c>
+      <c r="D45">
+        <v>0.64999999999999902</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>61</v>
       </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0.4</v>
+      </c>
+      <c r="C46">
+        <v>0.9</v>
+      </c>
+      <c r="D46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>62</v>
       </c>
-      <c r="B47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0.7</v>
+      </c>
+      <c r="C47">
+        <v>0.9</v>
+      </c>
+      <c r="D47">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>63</v>
       </c>
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.5</v>
+      </c>
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="D48">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>64</v>
       </c>
-      <c r="B49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.64999999999999902</v>
+      </c>
+      <c r="C49">
+        <v>0.6</v>
+      </c>
+      <c r="D49">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>65</v>
       </c>
-      <c r="B50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0.45</v>
+      </c>
+      <c r="C50">
+        <v>0.4</v>
+      </c>
+      <c r="D50">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>66</v>
       </c>
-      <c r="B51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0.3</v>
+      </c>
+      <c r="C51">
+        <v>0.64999999999999902</v>
+      </c>
+      <c r="D51">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>67</v>
       </c>
-      <c r="B52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0.64999999999999902</v>
+      </c>
+      <c r="C52">
+        <v>0.3</v>
+      </c>
+      <c r="D52">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>68</v>
       </c>
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0.3</v>
+      </c>
+      <c r="C53">
+        <v>0.9</v>
+      </c>
+      <c r="D53">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>69</v>
       </c>
-      <c r="B54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0.4</v>
+      </c>
+      <c r="C54">
+        <v>0.4</v>
+      </c>
+      <c r="D54">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>70</v>
       </c>
-      <c r="B55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0.4</v>
+      </c>
+      <c r="C55">
+        <v>0.85</v>
+      </c>
+      <c r="D55">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>71</v>
       </c>
-      <c r="B56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0.9</v>
+      </c>
+      <c r="C56">
+        <v>0.75</v>
+      </c>
+      <c r="D56">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>72</v>
       </c>
-      <c r="B57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C57">
+        <v>0.9</v>
+      </c>
+      <c r="D57">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>73</v>
       </c>
-      <c r="B58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0.64999999999999902</v>
+      </c>
+      <c r="C58">
+        <v>0.6</v>
+      </c>
+      <c r="D58">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>74</v>
       </c>
-      <c r="B59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0.4</v>
+      </c>
+      <c r="C59">
+        <v>0.64999999999999902</v>
+      </c>
+      <c r="D59">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>75</v>
       </c>
-      <c r="B60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0.3</v>
+      </c>
+      <c r="C60">
+        <v>0.3</v>
+      </c>
+      <c r="D60">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>76</v>
       </c>
-      <c r="B61" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" t="s">
-        <v>50</v>
-      </c>
-      <c r="D61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0.4</v>
+      </c>
+      <c r="C61">
+        <v>0.8</v>
+      </c>
+      <c r="D61">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>77</v>
       </c>
-      <c r="B62" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0.45</v>
+      </c>
+      <c r="C62">
+        <v>0.9</v>
+      </c>
+      <c r="D62">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>79</v>
       </c>
-      <c r="B63" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0.45</v>
+      </c>
+      <c r="C63">
+        <v>0.64999999999999902</v>
+      </c>
+      <c r="D63">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>75</v>
       </c>
-      <c r="B64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0.3</v>
+      </c>
+      <c r="C64">
+        <v>0.3</v>
+      </c>
+      <c r="D64">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>76</v>
       </c>
-      <c r="B65" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0.75</v>
+      </c>
+      <c r="C65">
+        <v>0.8</v>
+      </c>
+      <c r="D65">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>77</v>
       </c>
-      <c r="B66" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0.45</v>
+      </c>
+      <c r="C66">
+        <v>0.9</v>
+      </c>
+      <c r="D66">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>78</v>
       </c>
-      <c r="B67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0.4</v>
+      </c>
+      <c r="C67">
+        <v>0.9</v>
+      </c>
+      <c r="D67">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>79</v>
       </c>
-      <c r="B68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" t="s">
-        <v>44</v>
+      <c r="B68">
+        <v>0.45</v>
+      </c>
+      <c r="C68">
+        <v>0.64999999999999902</v>
+      </c>
+      <c r="D68">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -16041,338 +16970,339 @@
     <mergeCell ref="L12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I50" sqref="I50:L51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.140625"/>
-    <col min="2" max="2" width="15.140625"/>
+    <col min="1" max="1" width="21.15625"/>
+    <col min="2" max="2" width="15.15625"/>
     <col min="3" max="3" width="14"/>
-    <col min="4" max="4" width="14.42578125"/>
-    <col min="5" max="1025" width="10.85546875"/>
+    <col min="4" max="4" width="14.41796875"/>
+    <col min="5" max="1025" width="10.83984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>704</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15">
         <v>3231</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15">
         <v>631.5</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15">
         <v>2704</v>
       </c>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="16"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>-4.6113759999999999</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15">
         <v>-5.2967690000000003</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15">
         <v>-6.278918</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15">
         <v>-0.43531130000000001</v>
       </c>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>2.8789999999999999E-6</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14">
+      <c r="D4" s="12"/>
+      <c r="E4" s="13">
         <v>7.3070000000000005E-8</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13">
         <v>1.419E-10</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="16">
+      <c r="H4" s="13"/>
+      <c r="I4" s="15">
         <v>0.6583</v>
       </c>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="16"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>-0.29521310000000001</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13">
         <v>-0.33909089999999997</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13">
         <v>-0.40196660000000001</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="16">
+      <c r="H5" s="13"/>
+      <c r="I5" s="15">
         <v>-2.7867949999999999E-2</v>
       </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="18">
         <v>1258.5</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18">
         <v>1983.5</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18">
         <v>1609</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18">
         <v>3140</v>
       </c>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="17"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="18">
         <v>-1.5711930000000001</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18">
         <v>-2.2064729999999999</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18">
         <v>-1.4521390000000001</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18">
         <v>-1.3295509999999999</v>
       </c>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="19">
         <v>0.1105</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20">
         <v>2.461E-2</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20">
         <v>0.13980000000000001</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="19">
+      <c r="H8" s="20"/>
+      <c r="I8" s="21">
         <v>0.17580000000000001</v>
       </c>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="17"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="19">
         <v>-0.1005853</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27">
+      <c r="D9" s="19"/>
+      <c r="E9" s="20">
         <v>-0.14125499999999999</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20">
         <v>-9.2963649999999995E-2</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="19">
+      <c r="H9" s="20"/>
+      <c r="I9" s="21">
         <v>-8.5115780000000002E-2</v>
       </c>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="23">
         <v>424.5</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23">
         <v>2875</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="17">
+      <c r="F10" s="23"/>
+      <c r="G10" s="24">
         <v>415.5</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24">
         <v>2255</v>
       </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="23">
         <v>-6.2264720000000002</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23">
         <v>-5.7182069999999996</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="17">
+      <c r="F11" s="23"/>
+      <c r="G11" s="24">
         <v>-7.0561369999999997</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24">
         <v>-0.76786379999999999</v>
       </c>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="25">
         <v>2.523E-10</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21">
+      <c r="D12" s="25"/>
+      <c r="E12" s="23">
         <v>6.8489999999999998E-9</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21">
+      <c r="F12" s="23"/>
+      <c r="G12" s="23">
         <v>8.1889999999999997E-13</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="23">
+      <c r="H12" s="23"/>
+      <c r="I12" s="26">
         <v>0.43509999999999999</v>
       </c>
-      <c r="J12" s="23"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="23">
         <v>-0.39860899999999999</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23">
         <v>-0.36607070000000003</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="17">
+      <c r="F13" s="23"/>
+      <c r="G13" s="24">
         <v>-0.45172289999999998</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17">
+      <c r="H13" s="24"/>
+      <c r="I13" s="24">
         <v>-4.9157439999999997E-2</v>
       </c>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J13" s="24"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -16386,7 +17316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
@@ -16400,7 +17330,7 @@
         <v>1.319672</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -16414,7 +17344,7 @@
         <v>1.2950820000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
@@ -16428,7 +17358,7 @@
         <v>1.319672</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
@@ -16442,7 +17372,7 @@
         <v>1.6393439999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
@@ -16450,7 +17380,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -16464,7 +17394,7 @@
         <v>1.0929249999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
@@ -16478,7 +17408,7 @@
         <v>1.1901010000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
@@ -16492,7 +17422,7 @@
         <v>1.0929249999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="5" t="s">
         <v>23</v>
       </c>
@@ -16506,7 +17436,7 @@
         <v>1.1717439999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
@@ -16517,7 +17447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
@@ -16531,7 +17461,7 @@
         <v>0.71389999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -16545,7 +17475,7 @@
         <v>0.27910000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="5" t="s">
         <v>22</v>
       </c>
@@ -16559,7 +17489,7 @@
         <v>0.71389999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5" t="s">
         <v>23</v>
       </c>
@@ -16573,22 +17503,22 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6"/>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18" t="s">
+      <c r="C41" s="27"/>
+      <c r="D41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18" t="s">
+      <c r="E41" s="27"/>
+      <c r="F41" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="5" t="s">
         <v>35</v>
       </c>
@@ -16611,7 +17541,7 @@
         <v>0.94033489999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="5" t="s">
         <v>31</v>
       </c>
@@ -16634,7 +17564,7 @@
         <v>1.0831820000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="5" t="s">
         <v>36</v>
       </c>
@@ -16661,7 +17591,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="5" t="s">
         <v>32</v>
       </c>
@@ -16688,7 +17618,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="5" t="s">
         <v>37</v>
       </c>
@@ -16723,7 +17653,7 @@
         <v>3.0245899999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
@@ -16758,7 +17688,7 @@
         <v>1.124212</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="5" t="s">
         <v>38</v>
       </c>
@@ -16785,7 +17715,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="5" t="s">
         <v>34</v>
       </c>
@@ -16808,7 +17738,7 @@
         <v>1.103658</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I50" s="9">
         <v>2.9836070000000001</v>
       </c>
@@ -16822,7 +17752,7 @@
         <v>3.1721309999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I51" s="9">
         <v>1.0831820000000001</v>
       </c>
@@ -16836,7 +17766,7 @@
         <v>1.103658</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -16847,7 +17777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B53">
         <v>1.75</v>
       </c>
@@ -16856,7 +17786,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B54">
         <v>1.75</v>
       </c>
@@ -16865,7 +17795,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B55">
         <v>2.2000000000000002</v>
       </c>
@@ -16874,7 +17804,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B56">
         <v>2.2000000000000002</v>
       </c>
@@ -16883,7 +17813,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -16894,7 +17824,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B59">
         <v>0.75</v>
       </c>
@@ -16903,7 +17833,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B60">
         <v>0.75</v>
       </c>
@@ -16912,7 +17842,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B61">
         <v>1.2</v>
       </c>
@@ -16921,7 +17851,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B62">
         <v>1.2</v>
       </c>
@@ -16930,12 +17860,12 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B65">
         <f>2+B59</f>
         <v>2.75</v>
@@ -16945,7 +17875,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B66">
         <f t="shared" ref="B66:B68" si="2">2+B60</f>
         <v>2.75</v>
@@ -16955,7 +17885,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B67">
         <f t="shared" si="2"/>
         <v>3.2</v>
@@ -16965,7 +17895,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B68">
         <f t="shared" si="2"/>
         <v>3.2</v>
@@ -16975,7 +17905,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B70">
         <f>3+B59</f>
         <v>3.75</v>
@@ -16985,7 +17915,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B71">
         <f t="shared" ref="B71:B73" si="4">3+B60</f>
         <v>3.75</v>
@@ -16995,7 +17925,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B72">
         <f t="shared" si="4"/>
         <v>4.2</v>
@@ -17005,7 +17935,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B73">
         <f t="shared" si="4"/>
         <v>4.2</v>
@@ -17017,6 +17947,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -17033,49 +18006,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -17087,16 +18017,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="1025" width="11.578125"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/ToM/compVsMimic_Etude/EtudeFinale/Resultats/ComportementPow.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Resultats/ComportementPow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Resultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82C84950-A41D-44AC-A458-CD3778405443}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9CFEDD-8F5B-4737-B584-C82D7C682A86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6078" tabRatio="991" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6080" tabRatio="991" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowBob" sheetId="1" r:id="rId1"/>
@@ -206,13 +206,13 @@
     <t>SD</t>
   </si>
   <si>
-    <t>neutre</t>
-  </si>
-  <si>
     <t>comp.</t>
   </si>
   <si>
-    <t>similaire</t>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>neutral</t>
   </si>
 </sst>
 </file>
@@ -329,6 +329,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,8 +346,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,29 +379,9 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,10 +603,10 @@
                   <c:v>comp.</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>similaire</c:v>
+                  <c:v>similar</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>neutre</c:v>
+                  <c:v>neutral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -636,7 +636,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6262,30 +6261,30 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="8.41796875"/>
+    <col min="1" max="1025" width="8.41015625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -6337,7 +6336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6389,7 +6388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -6493,7 +6492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -6545,7 +6544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -6571,7 +6570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -6597,7 +6596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -6623,7 +6622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -6649,7 +6648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -6701,7 +6700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -6727,7 +6726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -6753,7 +6752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -6779,7 +6778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -6805,7 +6804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -6831,7 +6830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -6857,7 +6856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -6883,7 +6882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -6909,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -6935,7 +6934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -6961,7 +6960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -6987,7 +6986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -7039,7 +7038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -7065,7 +7064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -7091,7 +7090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -7117,7 +7116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -7143,7 +7142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -7221,7 +7220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -7247,7 +7246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -7273,7 +7272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -7299,7 +7298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -7325,7 +7324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -7351,7 +7350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -7377,7 +7376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -7403,7 +7402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -7429,7 +7428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -7481,7 +7480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -7507,7 +7506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -7533,7 +7532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -7559,7 +7558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -7611,7 +7610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -7637,7 +7636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -7689,7 +7688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -7715,7 +7714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -7767,7 +7766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -7793,7 +7792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -7819,7 +7818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61" s="1">
         <v>4</v>
       </c>
@@ -7845,7 +7844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" s="1">
         <v>3</v>
       </c>
@@ -7871,7 +7870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>2</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>3</v>
       </c>
@@ -7923,7 +7922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>1</v>
       </c>
@@ -7949,7 +7948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>2</v>
       </c>
@@ -7975,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>1</v>
       </c>
@@ -8001,7 +8000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>2</v>
       </c>
@@ -8027,7 +8026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>2</v>
       </c>
@@ -8053,7 +8052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>2</v>
       </c>
@@ -8079,7 +8078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>1</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>1</v>
       </c>
@@ -8131,7 +8130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>1</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>2</v>
       </c>
@@ -8183,7 +8182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>2</v>
       </c>
@@ -8209,7 +8208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>2</v>
       </c>
@@ -8235,7 +8234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>2</v>
       </c>
@@ -8261,7 +8260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>4</v>
       </c>
@@ -8287,7 +8286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>1</v>
       </c>
@@ -8313,7 +8312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>1</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>2</v>
       </c>
@@ -8365,7 +8364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>1</v>
       </c>
@@ -8391,7 +8390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>2</v>
       </c>
@@ -8417,7 +8416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>3</v>
       </c>
@@ -8443,7 +8442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>2</v>
       </c>
@@ -8469,7 +8468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>1</v>
       </c>
@@ -8495,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>2</v>
       </c>
@@ -8521,7 +8520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>1</v>
       </c>
@@ -8547,7 +8546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>2</v>
       </c>
@@ -8573,7 +8572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>4</v>
       </c>
@@ -8599,7 +8598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>4</v>
       </c>
@@ -8625,7 +8624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>1</v>
       </c>
@@ -8651,7 +8650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>2</v>
       </c>
@@ -8677,7 +8676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>2</v>
       </c>
@@ -8703,7 +8702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>1</v>
       </c>
@@ -8729,7 +8728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>4</v>
       </c>
@@ -8755,7 +8754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>1</v>
       </c>
@@ -8781,7 +8780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>1</v>
       </c>
@@ -8807,7 +8806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>2</v>
       </c>
@@ -8833,7 +8832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>2</v>
       </c>
@@ -8859,7 +8858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>2</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>2</v>
       </c>
@@ -8911,7 +8910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>2</v>
       </c>
@@ -8937,7 +8936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>2</v>
       </c>
@@ -8963,7 +8962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>1</v>
       </c>
@@ -8989,7 +8988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>1</v>
       </c>
@@ -9015,7 +9014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>1</v>
       </c>
@@ -9041,7 +9040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>1</v>
       </c>
@@ -9067,7 +9066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>1</v>
       </c>
@@ -9093,7 +9092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>2</v>
       </c>
@@ -9119,7 +9118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>1</v>
       </c>
@@ -9145,7 +9144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>4</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>2</v>
       </c>
@@ -9197,7 +9196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>2</v>
       </c>
@@ -9223,7 +9222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>2</v>
       </c>
@@ -9249,7 +9248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>2</v>
       </c>
@@ -9275,7 +9274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>1</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>1</v>
       </c>
@@ -9327,7 +9326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>2</v>
       </c>
@@ -9353,7 +9352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>1</v>
       </c>
@@ -9379,7 +9378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>2</v>
       </c>
@@ -9405,7 +9404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>4</v>
       </c>
@@ -9431,7 +9430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>2</v>
       </c>
@@ -9477,12 +9476,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="8.68359375"/>
+    <col min="1" max="1025" width="8.703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9508,7 +9507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>3</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9560,7 +9559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>4</v>
       </c>
@@ -9586,7 +9585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9612,7 +9611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9638,7 +9637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9664,7 +9663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>4</v>
       </c>
@@ -9690,7 +9689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>4</v>
       </c>
@@ -9716,7 +9715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>4</v>
       </c>
@@ -9742,7 +9741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>4</v>
       </c>
@@ -9768,7 +9767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -9794,7 +9793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>3</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>4</v>
       </c>
@@ -9846,7 +9845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>2</v>
       </c>
@@ -9872,7 +9871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>2</v>
       </c>
@@ -9898,7 +9897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -9924,7 +9923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>2</v>
       </c>
@@ -9950,7 +9949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>3</v>
       </c>
@@ -9976,7 +9975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>5</v>
       </c>
@@ -10002,7 +10001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>2</v>
       </c>
@@ -10028,7 +10027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>1</v>
       </c>
@@ -10054,7 +10053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>2</v>
       </c>
@@ -10080,7 +10079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>3</v>
       </c>
@@ -10106,7 +10105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>5</v>
       </c>
@@ -10132,7 +10131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>5</v>
       </c>
@@ -10158,7 +10157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>3</v>
       </c>
@@ -10184,7 +10183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>2</v>
       </c>
@@ -10210,7 +10209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>4</v>
       </c>
@@ -10236,7 +10235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>3</v>
       </c>
@@ -10262,7 +10261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>3</v>
       </c>
@@ -10288,7 +10287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>2</v>
       </c>
@@ -10314,7 +10313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>1</v>
       </c>
@@ -10340,7 +10339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>1</v>
       </c>
@@ -10366,7 +10365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>2</v>
       </c>
@@ -10392,7 +10391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>2</v>
       </c>
@@ -10418,7 +10417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>2</v>
       </c>
@@ -10444,7 +10443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>2</v>
       </c>
@@ -10470,7 +10469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>2</v>
       </c>
@@ -10496,7 +10495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>2</v>
       </c>
@@ -10522,7 +10521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>4</v>
       </c>
@@ -10548,7 +10547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>2</v>
       </c>
@@ -10574,7 +10573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>4</v>
       </c>
@@ -10600,7 +10599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>2</v>
       </c>
@@ -10626,7 +10625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>2</v>
       </c>
@@ -10652,7 +10651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>4</v>
       </c>
@@ -10678,7 +10677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>3</v>
       </c>
@@ -10704,7 +10703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>4</v>
       </c>
@@ -10730,7 +10729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>1</v>
       </c>
@@ -10756,7 +10755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>3</v>
       </c>
@@ -10782,7 +10781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>2</v>
       </c>
@@ -10808,7 +10807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>2</v>
       </c>
@@ -10834,7 +10833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>4</v>
       </c>
@@ -10860,7 +10859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>3</v>
       </c>
@@ -10886,7 +10885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>2</v>
       </c>
@@ -10912,7 +10911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>3</v>
       </c>
@@ -10938,7 +10937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>2</v>
       </c>
@@ -10964,7 +10963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>1</v>
       </c>
@@ -10990,7 +10989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>4</v>
       </c>
@@ -11016,7 +11015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>4</v>
       </c>
@@ -11042,7 +11041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>2</v>
       </c>
@@ -11068,7 +11067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>3</v>
       </c>
@@ -11094,7 +11093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>4</v>
       </c>
@@ -11120,7 +11119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>1</v>
       </c>
@@ -11146,7 +11145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>2</v>
       </c>
@@ -11172,7 +11171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>2</v>
       </c>
@@ -11198,7 +11197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>4</v>
       </c>
@@ -11224,7 +11223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>2</v>
       </c>
@@ -11250,7 +11249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>5</v>
       </c>
@@ -11276,7 +11275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>4</v>
       </c>
@@ -11302,7 +11301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>1</v>
       </c>
@@ -11328,7 +11327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>4</v>
       </c>
@@ -11354,7 +11353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>2</v>
       </c>
@@ -11380,7 +11379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>4</v>
       </c>
@@ -11406,7 +11405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>3</v>
       </c>
@@ -11432,7 +11431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>2</v>
       </c>
@@ -11458,7 +11457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>2</v>
       </c>
@@ -11484,7 +11483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>2</v>
       </c>
@@ -11510,7 +11509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>1</v>
       </c>
@@ -11536,7 +11535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>2</v>
       </c>
@@ -11562,7 +11561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>2</v>
       </c>
@@ -11588,7 +11587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>2</v>
       </c>
@@ -11614,7 +11613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>2</v>
       </c>
@@ -11640,7 +11639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>2</v>
       </c>
@@ -11666,7 +11665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>2</v>
       </c>
@@ -11692,7 +11691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>1</v>
       </c>
@@ -11718,7 +11717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>3</v>
       </c>
@@ -11744,7 +11743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>3</v>
       </c>
@@ -11770,7 +11769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>2</v>
       </c>
@@ -11796,7 +11795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>2</v>
       </c>
@@ -11822,7 +11821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>2</v>
       </c>
@@ -11848,7 +11847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>1</v>
       </c>
@@ -11874,7 +11873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>1</v>
       </c>
@@ -11900,7 +11899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>1</v>
       </c>
@@ -11926,7 +11925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>1</v>
       </c>
@@ -11952,7 +11951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>1</v>
       </c>
@@ -11978,7 +11977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>2</v>
       </c>
@@ -12004,7 +12003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>2</v>
       </c>
@@ -12030,7 +12029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>2</v>
       </c>
@@ -12056,7 +12055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>2</v>
       </c>
@@ -12082,7 +12081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>2</v>
       </c>
@@ -12108,7 +12107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>2</v>
       </c>
@@ -12134,7 +12133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>2</v>
       </c>
@@ -12160,7 +12159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>4</v>
       </c>
@@ -12186,7 +12185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>2</v>
       </c>
@@ -12212,7 +12211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>1</v>
       </c>
@@ -12238,7 +12237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>2</v>
       </c>
@@ -12264,7 +12263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>2</v>
       </c>
@@ -12290,7 +12289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>2</v>
       </c>
@@ -12316,7 +12315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>1</v>
       </c>
@@ -12342,7 +12341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>2</v>
       </c>
@@ -12368,7 +12367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>2</v>
       </c>
@@ -12394,7 +12393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>2</v>
       </c>
@@ -12420,7 +12419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>2</v>
       </c>
@@ -12446,7 +12445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>5</v>
       </c>
@@ -12472,7 +12471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>2</v>
       </c>
@@ -12498,7 +12497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>1</v>
       </c>
@@ -12524,7 +12523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>2</v>
       </c>
@@ -12550,7 +12549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>1</v>
       </c>
@@ -12576,7 +12575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>5</v>
       </c>
@@ -12602,7 +12601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>2</v>
       </c>
@@ -12628,7 +12627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>1</v>
       </c>
@@ -12654,7 +12653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>2</v>
       </c>
@@ -12694,30 +12693,30 @@
       <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="8.41796875"/>
+    <col min="1" max="1025" width="8.41015625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12743,7 +12742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12769,7 +12768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>4</v>
       </c>
@@ -12795,7 +12794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -12821,7 +12820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -12847,7 +12846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -12873,7 +12872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>2</v>
       </c>
@@ -12899,7 +12898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>2</v>
       </c>
@@ -12925,7 +12924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -12951,7 +12950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>1</v>
       </c>
@@ -12977,7 +12976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -13003,7 +13002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>3</v>
       </c>
@@ -13029,7 +13028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>1</v>
       </c>
@@ -13055,7 +13054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>2</v>
       </c>
@@ -13081,7 +13080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>1</v>
       </c>
@@ -13107,7 +13106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -13133,7 +13132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>1</v>
       </c>
@@ -13159,7 +13158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>2</v>
       </c>
@@ -13185,7 +13184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>5</v>
       </c>
@@ -13211,7 +13210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>2</v>
       </c>
@@ -13237,7 +13236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>4</v>
       </c>
@@ -13263,7 +13262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>3</v>
       </c>
@@ -13289,7 +13288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>2</v>
       </c>
@@ -13315,7 +13314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>4</v>
       </c>
@@ -13341,7 +13340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>1</v>
       </c>
@@ -13367,7 +13366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>1</v>
       </c>
@@ -13393,7 +13392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>2</v>
       </c>
@@ -13419,7 +13418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>2</v>
       </c>
@@ -13445,7 +13444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>3</v>
       </c>
@@ -13471,7 +13470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>2</v>
       </c>
@@ -13497,7 +13496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>2</v>
       </c>
@@ -13523,7 +13522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>1</v>
       </c>
@@ -13549,7 +13548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>1</v>
       </c>
@@ -13575,7 +13574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>2</v>
       </c>
@@ -13601,7 +13600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>1</v>
       </c>
@@ -13627,7 +13626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>2</v>
       </c>
@@ -13653,7 +13652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>2</v>
       </c>
@@ -13679,7 +13678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>3</v>
       </c>
@@ -13705,7 +13704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>3</v>
       </c>
@@ -13731,7 +13730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>2</v>
       </c>
@@ -13757,7 +13756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>2</v>
       </c>
@@ -13783,7 +13782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>3</v>
       </c>
@@ -13809,7 +13808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>1</v>
       </c>
@@ -13835,7 +13834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>4</v>
       </c>
@@ -13861,7 +13860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>5</v>
       </c>
@@ -13887,7 +13886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>2</v>
       </c>
@@ -13913,7 +13912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>2</v>
       </c>
@@ -13939,7 +13938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>2</v>
       </c>
@@ -13965,7 +13964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>1</v>
       </c>
@@ -13991,7 +13990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>1</v>
       </c>
@@ -14017,7 +14016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>2</v>
       </c>
@@ -14043,7 +14042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>2</v>
       </c>
@@ -14069,7 +14068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>3</v>
       </c>
@@ -14095,7 +14094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>2</v>
       </c>
@@ -14121,7 +14120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>2</v>
       </c>
@@ -14147,7 +14146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>3</v>
       </c>
@@ -14173,7 +14172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>1</v>
       </c>
@@ -14199,7 +14198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>1</v>
       </c>
@@ -14225,7 +14224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>3</v>
       </c>
@@ -14251,7 +14250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>2</v>
       </c>
@@ -14277,7 +14276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>2</v>
       </c>
@@ -14303,7 +14302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>2</v>
       </c>
@@ -14329,7 +14328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>1</v>
       </c>
@@ -14355,7 +14354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>2</v>
       </c>
@@ -14381,7 +14380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>1</v>
       </c>
@@ -14407,7 +14406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>2</v>
       </c>
@@ -14433,7 +14432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>2</v>
       </c>
@@ -14459,7 +14458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>2</v>
       </c>
@@ -14485,7 +14484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>1</v>
       </c>
@@ -14511,7 +14510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>1</v>
       </c>
@@ -14537,7 +14536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>1</v>
       </c>
@@ -14563,7 +14562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>1</v>
       </c>
@@ -14589,7 +14588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>4</v>
       </c>
@@ -14615,7 +14614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>2</v>
       </c>
@@ -14641,7 +14640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>1</v>
       </c>
@@ -14667,7 +14666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>2</v>
       </c>
@@ -14693,7 +14692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>2</v>
       </c>
@@ -14719,7 +14718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>1</v>
       </c>
@@ -14745,7 +14744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>2</v>
       </c>
@@ -14771,7 +14770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>4</v>
       </c>
@@ -14797,7 +14796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>1</v>
       </c>
@@ -14823,7 +14822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>4</v>
       </c>
@@ -14849,7 +14848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>3</v>
       </c>
@@ -14875,7 +14874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>2</v>
       </c>
@@ -14901,7 +14900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>4</v>
       </c>
@@ -14927,7 +14926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>2</v>
       </c>
@@ -14953,7 +14952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>1</v>
       </c>
@@ -14979,7 +14978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>2</v>
       </c>
@@ -15005,7 +15004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>2</v>
       </c>
@@ -15031,7 +15030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>1</v>
       </c>
@@ -15057,7 +15056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>1</v>
       </c>
@@ -15083,7 +15082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>2</v>
       </c>
@@ -15109,7 +15108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>1</v>
       </c>
@@ -15135,7 +15134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>2</v>
       </c>
@@ -15161,7 +15160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>2</v>
       </c>
@@ -15187,7 +15186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>1</v>
       </c>
@@ -15213,7 +15212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>2</v>
       </c>
@@ -15239,7 +15238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>2</v>
       </c>
@@ -15265,7 +15264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>2</v>
       </c>
@@ -15291,7 +15290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>2</v>
       </c>
@@ -15317,7 +15316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>2</v>
       </c>
@@ -15343,7 +15342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>2</v>
       </c>
@@ -15369,7 +15368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>4</v>
       </c>
@@ -15395,7 +15394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>1</v>
       </c>
@@ -15421,7 +15420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>4</v>
       </c>
@@ -15447,7 +15446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>3</v>
       </c>
@@ -15473,7 +15472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>1</v>
       </c>
@@ -15499,7 +15498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>1</v>
       </c>
@@ -15525,7 +15524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>2</v>
       </c>
@@ -15551,7 +15550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>1</v>
       </c>
@@ -15577,7 +15576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>2</v>
       </c>
@@ -15603,7 +15602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>2</v>
       </c>
@@ -15629,7 +15628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>2</v>
       </c>
@@ -15655,7 +15654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>2</v>
       </c>
@@ -15681,7 +15680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>2</v>
       </c>
@@ -15707,7 +15706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>1</v>
       </c>
@@ -15733,7 +15732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>2</v>
       </c>
@@ -15759,7 +15758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>1</v>
       </c>
@@ -15785,7 +15784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>2</v>
       </c>
@@ -15811,7 +15810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>2</v>
       </c>
@@ -15837,7 +15836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>2</v>
       </c>
@@ -15863,7 +15862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>2</v>
       </c>
@@ -15905,13 +15904,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:J17"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -15925,7 +15924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>16</v>
       </c>
@@ -15939,7 +15938,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>17</v>
       </c>
@@ -15953,7 +15952,7 @@
         <v>0.64999999999999902</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>19</v>
       </c>
@@ -15967,7 +15966,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>20</v>
       </c>
@@ -15981,7 +15980,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>21</v>
       </c>
@@ -15995,7 +15994,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>22</v>
       </c>
@@ -16009,7 +16008,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>23</v>
       </c>
@@ -16023,7 +16022,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>24</v>
       </c>
@@ -16037,7 +16036,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>25</v>
       </c>
@@ -16050,20 +16049,20 @@
       <c r="D10">
         <v>0.64999999999999902</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14" t="s">
+      <c r="K10" s="16"/>
+      <c r="L10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>26</v>
       </c>
@@ -16079,20 +16078,20 @@
       <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="17">
         <v>3.3513009999999999</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17">
         <v>3.8851640000000001</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15">
+      <c r="K11" s="17"/>
+      <c r="L11" s="17">
         <v>0.44533060000000002</v>
       </c>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>27</v>
       </c>
@@ -16108,20 +16107,20 @@
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="14">
         <v>7.9759999999999998E-4</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13">
+      <c r="I12" s="14"/>
+      <c r="J12" s="15">
         <v>1.019E-4</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13">
+      <c r="K12" s="15"/>
+      <c r="L12" s="15">
         <v>0.65590000000000004</v>
       </c>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>28</v>
       </c>
@@ -16137,20 +16136,20 @@
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="14">
         <v>0.2895083</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13">
+      <c r="I13" s="14"/>
+      <c r="J13" s="15">
         <v>0.33562710000000001</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13">
+      <c r="K13" s="15"/>
+      <c r="L13" s="15">
         <v>3.8470699999999997E-2</v>
       </c>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>29</v>
       </c>
@@ -16164,7 +16163,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>30</v>
       </c>
@@ -16178,16 +16177,16 @@
         <v>0.9</v>
       </c>
       <c r="H15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>31</v>
       </c>
@@ -16203,17 +16202,17 @@
       <c r="G16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="12">
         <v>0.51492539999999998</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="12">
         <v>0.64552240000000005</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="12">
         <v>0.66044780000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>32</v>
       </c>
@@ -16229,17 +16228,17 @@
       <c r="G17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="12">
         <v>0.1749491</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="12">
         <v>0.21439330000000001</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="12">
         <v>0.21439330000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>33</v>
       </c>
@@ -16253,7 +16252,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>34</v>
       </c>
@@ -16266,9 +16265,9 @@
       <c r="D19">
         <v>0.64999999999999902</v>
       </c>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>35</v>
       </c>
@@ -16282,7 +16281,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>36</v>
       </c>
@@ -16296,7 +16295,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>37</v>
       </c>
@@ -16310,7 +16309,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>38</v>
       </c>
@@ -16324,7 +16323,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>39</v>
       </c>
@@ -16338,7 +16337,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>40</v>
       </c>
@@ -16352,7 +16351,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>41</v>
       </c>
@@ -16366,7 +16365,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>42</v>
       </c>
@@ -16380,7 +16379,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>43</v>
       </c>
@@ -16394,7 +16393,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>44</v>
       </c>
@@ -16408,7 +16407,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>45</v>
       </c>
@@ -16422,7 +16421,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>46</v>
       </c>
@@ -16436,7 +16435,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>47</v>
       </c>
@@ -16450,7 +16449,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>48</v>
       </c>
@@ -16464,7 +16463,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>49</v>
       </c>
@@ -16478,7 +16477,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>50</v>
       </c>
@@ -16492,7 +16491,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>51</v>
       </c>
@@ -16506,7 +16505,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>52</v>
       </c>
@@ -16520,7 +16519,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>53</v>
       </c>
@@ -16534,7 +16533,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>54</v>
       </c>
@@ -16548,7 +16547,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>55</v>
       </c>
@@ -16562,7 +16561,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>56</v>
       </c>
@@ -16576,7 +16575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>57</v>
       </c>
@@ -16590,7 +16589,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>58</v>
       </c>
@@ -16604,7 +16603,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>59</v>
       </c>
@@ -16618,7 +16617,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>60</v>
       </c>
@@ -16632,7 +16631,7 @@
         <v>0.64999999999999902</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>61</v>
       </c>
@@ -16646,7 +16645,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>62</v>
       </c>
@@ -16660,7 +16659,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>63</v>
       </c>
@@ -16674,7 +16673,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>64</v>
       </c>
@@ -16688,7 +16687,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>65</v>
       </c>
@@ -16702,7 +16701,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>66</v>
       </c>
@@ -16716,7 +16715,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>67</v>
       </c>
@@ -16730,7 +16729,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>68</v>
       </c>
@@ -16744,7 +16743,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>69</v>
       </c>
@@ -16758,7 +16757,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>70</v>
       </c>
@@ -16772,7 +16771,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>71</v>
       </c>
@@ -16786,7 +16785,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>72</v>
       </c>
@@ -16800,7 +16799,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>73</v>
       </c>
@@ -16814,7 +16813,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>74</v>
       </c>
@@ -16828,7 +16827,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>75</v>
       </c>
@@ -16842,7 +16841,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>76</v>
       </c>
@@ -16856,7 +16855,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>77</v>
       </c>
@@ -16870,7 +16869,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>79</v>
       </c>
@@ -16884,7 +16883,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>75</v>
       </c>
@@ -16898,7 +16897,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>76</v>
       </c>
@@ -16912,7 +16911,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>77</v>
       </c>
@@ -16926,7 +16925,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>78</v>
       </c>
@@ -16940,7 +16939,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>79</v>
       </c>
@@ -16982,327 +16981,327 @@
       <selection activeCell="I50" sqref="I50:L51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21.15625"/>
-    <col min="2" max="2" width="15.15625"/>
+    <col min="1" max="1" width="21.17578125"/>
+    <col min="2" max="2" width="15.17578125"/>
     <col min="3" max="3" width="14"/>
-    <col min="4" max="4" width="14.41796875"/>
-    <col min="5" max="1025" width="10.83984375"/>
+    <col min="4" max="4" width="14.41015625"/>
+    <col min="5" max="1025" width="10.8203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="17">
         <v>704</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17">
         <v>3231</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17">
         <v>631.5</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17">
         <v>2704</v>
       </c>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="16"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" s="29"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="17">
         <v>-4.6113759999999999</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17">
         <v>-5.2967690000000003</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17">
         <v>-6.278918</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17">
         <v>-0.43531130000000001</v>
       </c>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="16"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="14">
         <v>2.8789999999999999E-6</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15">
         <v>7.3070000000000005E-8</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15">
         <v>1.419E-10</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="15">
+      <c r="H4" s="15"/>
+      <c r="I4" s="17">
         <v>0.6583</v>
       </c>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="16"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" s="29"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="14">
         <v>-0.29521310000000001</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15">
         <v>-0.33909089999999997</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15">
         <v>-0.40196660000000001</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="15">
+      <c r="H5" s="15"/>
+      <c r="I5" s="17">
         <v>-2.7867949999999999E-2</v>
       </c>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="17" t="s">
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="26">
         <v>1258.5</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26">
         <v>1983.5</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26">
         <v>1609</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18">
+      <c r="H6" s="26"/>
+      <c r="I6" s="26">
         <v>3140</v>
       </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="17"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="26">
         <v>-1.5711930000000001</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26">
         <v>-2.2064729999999999</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26">
         <v>-1.4521390000000001</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18">
+      <c r="H7" s="26"/>
+      <c r="I7" s="26">
         <v>-1.3295509999999999</v>
       </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="17"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" s="25"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="27">
         <v>0.1105</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20">
+      <c r="D8" s="27"/>
+      <c r="E8" s="28">
         <v>2.461E-2</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20">
+      <c r="F8" s="28"/>
+      <c r="G8" s="28">
         <v>0.13980000000000001</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21">
+      <c r="H8" s="28"/>
+      <c r="I8" s="20">
         <v>0.17580000000000001</v>
       </c>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="17"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="27">
         <v>-0.1005853</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20">
+      <c r="D9" s="27"/>
+      <c r="E9" s="28">
         <v>-0.14125499999999999</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28">
         <v>-9.2963649999999995E-2</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21">
+      <c r="H9" s="28"/>
+      <c r="I9" s="20">
         <v>-8.5115780000000002E-2</v>
       </c>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="22" t="s">
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>424.5</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22">
         <v>2875</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24">
+      <c r="F10" s="22"/>
+      <c r="G10" s="18">
         <v>415.5</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18">
         <v>2255</v>
       </c>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="22"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>-6.2264720000000002</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22">
         <v>-5.7182069999999996</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24">
+      <c r="F11" s="22"/>
+      <c r="G11" s="18">
         <v>-7.0561369999999997</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18">
         <v>-0.76786379999999999</v>
       </c>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="22"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A12" s="21"/>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="23">
         <v>2.523E-10</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="23">
+      <c r="D12" s="23"/>
+      <c r="E12" s="22">
         <v>6.8489999999999998E-9</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23">
+      <c r="F12" s="22"/>
+      <c r="G12" s="22">
         <v>8.1889999999999997E-13</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="26">
+      <c r="H12" s="22"/>
+      <c r="I12" s="24">
         <v>0.43509999999999999</v>
       </c>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="22"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>-0.39860899999999999</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22">
         <v>-0.36607070000000003</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24">
+      <c r="F13" s="22"/>
+      <c r="G13" s="18">
         <v>-0.45172289999999998</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18">
         <v>-4.9157439999999997E-2</v>
       </c>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" s="18"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="27" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -17316,7 +17315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
@@ -17330,7 +17329,7 @@
         <v>1.319672</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -17344,7 +17343,7 @@
         <v>1.2950820000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
@@ -17358,7 +17357,7 @@
         <v>1.319672</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
@@ -17372,7 +17371,7 @@
         <v>1.6393439999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
@@ -17380,7 +17379,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
@@ -17394,7 +17393,7 @@
         <v>1.0929249999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
@@ -17408,7 +17407,7 @@
         <v>1.1901010000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
@@ -17422,7 +17421,7 @@
         <v>1.0929249999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="5" t="s">
         <v>23</v>
       </c>
@@ -17436,7 +17435,7 @@
         <v>1.1717439999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
@@ -17447,7 +17446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
@@ -17461,7 +17460,7 @@
         <v>0.71389999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -17475,7 +17474,7 @@
         <v>0.27910000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A38" s="5" t="s">
         <v>22</v>
       </c>
@@ -17489,7 +17488,7 @@
         <v>0.71389999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A39" s="5" t="s">
         <v>23</v>
       </c>
@@ -17503,22 +17502,22 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A41" s="6"/>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27" t="s">
+      <c r="E41" s="19"/>
+      <c r="F41" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A42" s="5" t="s">
         <v>35</v>
       </c>
@@ -17541,7 +17540,7 @@
         <v>0.94033489999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="s">
         <v>31</v>
       </c>
@@ -17564,7 +17563,7 @@
         <v>1.0831820000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A44" s="5" t="s">
         <v>36</v>
       </c>
@@ -17591,7 +17590,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A45" s="5" t="s">
         <v>32</v>
       </c>
@@ -17618,7 +17617,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A46" s="5" t="s">
         <v>37</v>
       </c>
@@ -17653,7 +17652,7 @@
         <v>3.0245899999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
@@ -17688,7 +17687,7 @@
         <v>1.124212</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A48" s="5" t="s">
         <v>38</v>
       </c>
@@ -17715,7 +17714,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A49" s="5" t="s">
         <v>34</v>
       </c>
@@ -17738,7 +17737,7 @@
         <v>1.103658</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
       <c r="I50" s="9">
         <v>2.9836070000000001</v>
       </c>
@@ -17752,7 +17751,7 @@
         <v>3.1721309999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
       <c r="I51" s="9">
         <v>1.0831820000000001</v>
       </c>
@@ -17766,7 +17765,7 @@
         <v>1.103658</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -17777,7 +17776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B53">
         <v>1.75</v>
       </c>
@@ -17786,7 +17785,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B54">
         <v>1.75</v>
       </c>
@@ -17795,7 +17794,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B55">
         <v>2.2000000000000002</v>
       </c>
@@ -17804,7 +17803,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B56">
         <v>2.2000000000000002</v>
       </c>
@@ -17813,7 +17812,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -17824,7 +17823,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B59">
         <v>0.75</v>
       </c>
@@ -17833,7 +17832,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B60">
         <v>0.75</v>
       </c>
@@ -17842,7 +17841,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B61">
         <v>1.2</v>
       </c>
@@ -17851,7 +17850,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B62">
         <v>1.2</v>
       </c>
@@ -17860,12 +17859,12 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B65">
         <f>2+B59</f>
         <v>2.75</v>
@@ -17875,7 +17874,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B66">
         <f t="shared" ref="B66:B68" si="2">2+B60</f>
         <v>2.75</v>
@@ -17885,7 +17884,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B67">
         <f t="shared" si="2"/>
         <v>3.2</v>
@@ -17895,7 +17894,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B68">
         <f t="shared" si="2"/>
         <v>3.2</v>
@@ -17905,7 +17904,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B70">
         <f>3+B59</f>
         <v>3.75</v>
@@ -17915,7 +17914,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B71">
         <f t="shared" ref="B71:B73" si="4">3+B60</f>
         <v>3.75</v>
@@ -17925,7 +17924,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B72">
         <f t="shared" si="4"/>
         <v>4.2</v>
@@ -17935,7 +17934,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B73">
         <f t="shared" si="4"/>
         <v>4.2</v>
@@ -17947,12 +17946,43 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="C10:D10"/>
@@ -17969,43 +17999,12 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -18024,9 +18023,9 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="11.578125"/>
+    <col min="1" max="1025" width="11.5859375"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
